--- a/EUvsVirus/output/Q1.xlsx
+++ b/EUvsVirus/output/Q1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Title</t>
   </si>
@@ -40,42 +40,30 @@
     <t>Analysis clinical features of COVID-19 infection in secondary epidemic area and report potential biomarkers in evaluation</t>
   </si>
   <si>
-    <t>molecules G-Quadruplex-Based Fluorescent Turn-On Ligands and Aptamers: From Development to Applications</t>
-  </si>
-  <si>
     <t>Clinical characteristics and intrauterine vertical transmission potential of COVID-19 infection in nine pregnant women: a retrospective review of medical records</t>
   </si>
   <si>
-    <t>Tourism Development and Propaganda in Contemporary Lhasa, Tibet Autonomous Region (TAR), China</t>
-  </si>
-  <si>
     <t>Journal Pre-proof Featuring COVID-19 cases via screening symptomatic patients with epidemiologic link during flu season in a medical center of central Taiwan</t>
   </si>
   <si>
     <t>Epidemiological and clinical features of COVID-19 patients with and without pneumonia in Beijing, China</t>
   </si>
   <si>
-    <t>Peptide-Based Vaccinology: Experimental and Computational Approaches to Target Hypervariable Viruses through the Fine Characterization of Protective Epitopes Recognized by Monoclonal Antibodies and the Identification of T-Cell-Activating Peptides</t>
-  </si>
-  <si>
     <t>The epidemiology and pathogenesis of coronavirus disease (COVID-19) outbreak</t>
   </si>
   <si>
     <t>Title: ACP risk grade: a simple mortality index for patients with confirmed or suspected severe acute respiratory syndrome coronavirus 2 disease (COVID-19) during the early stage of outbreak in Wuhan</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>92413565e9d507fdf5550d5123ef420948ae993c</t>
   </si>
   <si>
-    <t>061eb24a1462aba7b53e6c099fe5d4bd046dd56a</t>
-  </si>
-  <si>
     <t>0f15655bda78c3a62a03a19d8028f8f5cf5a1ef5</t>
   </si>
   <si>
-    <t>0bb6782b0ae9f85190f40f733db74e6181404845</t>
-  </si>
-  <si>
     <t>14dbf1c01f2c422c1aefee32f094cc524ea03af1</t>
   </si>
   <si>
@@ -85,45 +73,40 @@
     <t>24e17488d399c436305c819953beae2961214771</t>
   </si>
   <si>
-    <t>5076cec908e9bc3ba685507e00ac19deab50b02e</t>
-  </si>
-  <si>
     <t>5307fbd7cbc9b0b7e87ec4d1a8b99e544d81446f</t>
   </si>
   <si>
     <t>f854d7b750541d65c48df953a65028a50ce57881</t>
   </si>
   <si>
+    <t>91334a1ca7778c46bc8a73aaed4e7051cf05738b</t>
+  </si>
+  <si>
+    <t>882219fd09765ece5b362415882397e78972373e</t>
+  </si>
+  <si>
+    <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
+  </si>
+  <si>
     <t>Weiping Ji, Gautam Bishnu, Zhenzhai Cai, Xian Shen</t>
   </si>
   <si>
-    <t>Mubarak I Umar, Danyang Ji, Chun-Yin Chan, Chun Kit Kwok</t>
-  </si>
-  <si>
     <t>Huijun Chen, Juanjuan Guo, Chen Wang, Fan Luo, Xuechen Yu, Wei Zhang, Jiafu Li, Dongchi Zhao, Dan Xu, Qing Gong, Jing Liao, Huixia Yang, Wei Hou, Yuanzhen Zhang</t>
   </si>
   <si>
-    <t>Daisuke Murakami</t>
-  </si>
-  <si>
     <t>Wen-Hsin Hsih, Meng-Yu Cheng, Mao-Wang Ho, Chia-Huei Chou, Po-Chang Lin, Chih-Yu Chi, Wei-Chih Liao, Chih-Yu Chen, Lih-Ying Leong, Ni Tien, Huan-Cheng Lai, Yi-Chyi Lai, Min-Chi Lu</t>
   </si>
   <si>
     <t>Penghui Yang, Yibo Ding, Zhe Xu, # , Rui Pu, Ping Li, Jin Yan, Jiluo Liu, Fanping Meng, Lei Huang, Lei Shi, Tianjun Jiang, Enqiang Qin, Min Zhao, Dawei Zhang, Peng Zhao, Lingxiang Yu, Zhaohai Wang, Zhixian Hong, Zhaohui Xiao, Qing Xi, Dexi Zhao, Peng Yu, Caizhong Zhu, Zhu Chen, Shaogeng Zhang, Junsheng Ji, Guangwen Cao, Fusheng Wang, P Yang, J Yan Bsc, Yu Phd, Wang Phd, Hong Phd, Z Xiao, D Zhao, Z Xu, F Meng, L Huang, L Shi, T Jiang, E Qin, M Zhao, D Zhang, Zhu Phd, C Chen, F-S Wang, Y Ding, Pu Phd, P Li, Phd , J Liu, G-W Cao</t>
   </si>
   <si>
-    <t>Matteo Castelli, Francesca Cappelletti, Roberta Antonia Diotti, Giuseppe Sautto, Elena Criscuolo, Matteo Dal Peraro, Nicola Clementi</t>
-  </si>
-  <si>
     <t>Hussin A Rothan, Siddappa N Byrareddy</t>
   </si>
   <si>
     <t>China , Jiatao Lu, Shufang Hu, Rong Fan, ; Zhihong Liu, Xueru Yin, ; Qiongya Wang, Qingquan Lv, Zhifang Cai, Haijun Li, Yuhai Hu, Ying Han, Hongping Hu, Wenyong Gao, Shibo Feng, ; Qiongfang Liu, ; Hui Li, ; Jian Sun, ; Jie Peng, ; Xuefeng Yi, Zixiao Zhou, Yabing Guo, Jinlin 3#,  Hou, Zhihong Liu, Jinlin Hou</t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract
-Guanine (G)-quadruplexes (G4s) are unique nucleic acid structures that are formed by stacked G-tetrads in G-rich DNA or RNA sequences. G4s have been reported to play significant roles in various cellular events in both macro-and micro-organisms. The identification and characterization of G4s can help to understand their different biological roles and potential applications in diagnosis and therapy. In addition to biophysical and biochemical methods to interrogate G4 formation, G4 fluorescent turn-on ligands can be used to target and visualize G4 formation both in vitro and in cells. Here, we review several representative classes of G4 fluorescent turn-on ligands in terms of their interaction mechanism and application perspectives. Interestingly, G4 structures are commonly identified in DNA and RNA aptamers against targets that include proteins and small molecules, which can be utilized as G4 tools for diverse applications. We therefore also summarize the recent development of G4-containing aptamers and highlight their applications in biosensing, bioimaging, and therapy. Moreover, we discuss the current challenges and future perspectives of G4 fluorescent turn-on ligands and G4-containing aptamers.G4s play significant roles in almost every cellular event, including but not limited to DNA replication, transcription, translation, RNA metabolism, and epigenetic remodeling [16, 17] . Recent studies have also suggested that G4 structures can serve as promising cancer and anti-microbe targets [18, 19] . To identify such potential G4 targets, various computational methods such as QGRS Mapper [20], quadparser [3], G4 Hunter [21], G4NN [22], and Quadron [23] have been developed to predict G4 formations. Spectroscopic techniques such as circular dichroism (CD) [24], UV melting [25], mass spectrometry [26], nuclear magnetic resonance (NMR) [27], and intrinsic fluorescence [28] can also detect G4 formation based on its physical properties in a label-free manner. In addition to these biophysical methods, biochemical methods such as polymerase stop assay [29] and dimethyl sulfate (DMS) footprinting [30] can interrogate DNA G4 formation by template extension stalling and measuring the guanine nucleotide's resistance to the attachment of a chemical probe, respectively. More recently, in vitro methods that utilize rG4-mediated reverse transcriptase stalling have been developed to interrogate rG4 in low-abundance transcripts [31], and selective 2 -hydroxyl acylation analyzed by a lithium ion-mediated primer extension (SHALiPE), and DMSLiPE [32] have been developed to map distinctive structural patterns of rG4. Several next-generation sequencing-based approaches such as G4-seq [33], G4-Chip [34], rG4-seq [35], DMS-seq [36], and G4RP [37] enable the genome-wide and transcriptome-wide profiling of G4s.Another key category for G4 detection is to use fluorogenic G4 ligands whose fluorescence is selectively enhanced when interacting with G4s. These fluorescent turn-on ligands can be used to track G4 formation both in vitro and in cells, and they are discussed in detail in this review.Besides acting as potential targets, G4s can be used as molecular tools for diverse applications. It is worth noting that the structure of G4s has been identified in studies using combinatorial methods and the systematic evolution of ligands by exponential enrichment (SELEX) technique with the aim of developing aptamers for therapeutic and diagnostic purposes [38] [39] [40] . G4s provide extra chemical and thermal stability for aptamer-based therapeutics, and such aptamers have been successfully designed to target a number of HIV proteins [41, 42] , prion proteins [43] , and anti-cancer targets [44, 45] . In diagnostics, G4-containing aptamers have been widely applied to target a wide range of pathogenic proteins and small molecules to emit a fluorescence-like signal [40] . In this review, we summarize the recent development of fluorogenic G4 ligands and G4-containing aptamers, and highlight their latest applications in vitro and in cells ( Figure 1D ). We will also discuss current challenges and future perspectives for better detection and targeting of G4s in diverse organisms, as well as for designing and developing G4-related tools for various biological applications.The biological significance of G4s in cells has led to a quest to develop diverse ligands that could help researchers understand their different cellular roles. On the one hand, some of these ligands are designed as fluorescent/imaging probes to verify G4 formation. On the other hand, some ligands can stabilize G4s and serve as chemical tools to challenge and alter G4-dependent processes. Also, it is possible that some ligands can perform both functions. In this review, we mainly focus on the organic G4 probes that is fluorogenic for in vitro and in cell detection of G4. As shown in Figure 2 , these organic Molecules 2019, 24, 2416 4 of 34ligands in aqueous solvents have low fluorescence intensities; however, upon interacting with G4, an increased fluorescence intensity is observed, making fluorescence detection and imaging of G4 in vitro and in cells possible [51, 52] . It should also be of note that there are also large repertoires of inorganic G4 probes that are luminogenic, and they have been extensively studied and several excellent reviews can be found elsewhere [53] [54] [55] [56] . One representative example includes iridium (III) complex based G4s sensing methods; luminescent G4 switch-on probe for highly selective and tunable detection of cysteine and glutathione based on iridium (III) complex [57] . This method showed an enhanced intensity in the presence of desired metabolites [57] . Other examples of iridium (III) complex G4s based methods have also been reported, for instance, detection method for nicking endonuclease Nb.BsmI activity [58], for prostate specific antigen detection [59] , thymine DNA glycosylase activity detection [60] , for the detection of Siglec -5 [61] and for ribonuclease H detection [62] . Platinum (II) complexes are another representative example of inorganic G4 ligand; Ma et al [63] reported the synthesis of platinum (II) complexes containing dipyridophenazine ligand as a highly sensitive luminescence probe for the detection of G4s and also showed to inhibit human telomerase enzyme (property also seen with organic ligands) and occur via an end stacking approach with a binding affinity of ∼10 7 dm 3 mol −1 [63] . Other examples of platinum (II) complexes reported includes the detection of nanomolar silver (I) ion in solution [64], as luminescence probe for G4 and c-myc downregulation [65] . Also, terpyridine ligand containing platinum (II) complexes have been shown by Sunthaaralingam et al. [66] to strongly binds to G4s of hTelo and c-myc through π-π stacking [66], which binding affinity and selectivity influenced by their aromatic surface [67] . Additionally, Ruthenium (II) complexes have been also reported as a selective luminescence probe for G4 detection, and occur via stacking of the ligand onto the G-tetrad and also based on insertion of the complex into the groove [68] . Other examples of ruthenium (II) complexes were also reported; for instance for sensing and methylation of duplex and G4s using Ruthenium (II) complexes containing dipyridylphenazine (dppz) ligand [69] for selective binding to various G4s using a bromo-substituent to the dipyridylphenazine [70] . Some advantages of inorganic fluorogenic ligands include their tunability, distinct properties (like anticancer drug development and their ability to induce G4s), and structures [66, 68, 71] .
-</t>
+    <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
   </si>
   <si>
     <t xml:space="preserve">Abstract
@@ -149,15 +132,9 @@
     <t>['\n\nA new viral pneumonia disease outbreak in Wuhan city at the beginning of 2020 was confirmed to be caused by the "COVID-19" novel coronavirus infection [1] .', 'COVID-19 has not been previously found in the human body, and no previous case of COVID-19 pneumonia has been detected.', 'According to a report from Wuhan city, the main epidemic area, people infected with COVID-19 often have symptoms of fever, cough, shortness of breath, dyspnea, and severe infection, which can lead to pneumonia or even death [3] .', 'The epidemic has spread from the main epidemic areas, Hubei Province and Wuhan city, to other provinces and cities, where new successive cases of COVID-19 infection have been reported.', 'In this study, the first cluster of cases of COVID-19 infection in Wenzhou city, Zhejiang Province, which is the leading secondary epidemic area, is reported.', 'The clinical data of patients who were diagnosed with novel coronavirus COVID-19 positive  by nucleic acid test from sputum, throat swab, lower respiratory secretion and other samples were collected from  January 15 to February 1, 2020.', 'Ethical approval for the study was obtained from the Second Affiliated Hospital of Wenzhou Medical University (Zhejiang, China).1.2 Inclusion criteria: Patients aged 18 years or older who met the NCP diagnostic criteria were included [4] .1.3 Exclusion criteria: Patients with non-COVID-19 infectious respiratory diseases; and patients with suspected COVID-19 but multiple negative sputum, throat swab, lower respiratory secretion and other samples were excluded.1.4 Grouping method: According to the previous histories of the patients who met the COVID-19 infection diagnostic criteria, the cases that occurred after returning to Wenzhou from Wuhan were assigned to the direct contact (DC) group.', '2.1\n\nAccording to the descriptions of basic symptoms and signs of the total study population, the data of 33 conformed COVID-19 cases, including 17 males (51.5%) and 16 females (48.5%), were analyzed.', 'Discussion\n\nAccording to the reports of scholars in the main epidemic area, the primary clinical symptoms of COVID-19-infected patients are fever, dry cough, fatigue, and the gradual development of respiratory problems, with fever being the most typical.', 'In our study, we found that the clinical symptoms in COVID-19-infected patients in the secondary epidemic area were similar to those in patients in the primary epidemic area, but there were some inconsistencies.', 'Moreover, critical patients were rare, which may be related to the younger age of patients and the presence fewer complications in the secondary epidemic area than in the main epidemic area.According to a report from the main epidemic area, COVID-19-infected patients had limited lung lesions at the early stage of onset.', 'The results of imaging examinations of 33 patients in the secondary epidemic area collected in this study were similar to those reported in the main epidemic area, so no further explanation is given in the article.In patients with COVID-19 infection diagnosed in the main epidemic area, the laboratory examination results at the early stage of the disease showed that the total number of white blood cells decreased or remained normal; the lymphocyte count decreased; the monocyte count increased or remained normal; the liver enzyme, muscle enzyme and myoglobin levels increased in some patients; the C-reactive protein and ESR increased in most patients; procalcitonin remained normal; D-dimer increased in severe patients; lymphocytes progressively decreased; and coagulation function decreased.', 'The laboratory examination results of the 33 patients showed that the total number of leukocytes in patients with COVID-19 infection in the secondary epidemic area was slightly reduced, normal or slightly increased, and the proportion of lymphocytes in some patients was significantly reduced.', 'CRP did not change significantly in all patients with COVID-19 infection, and some patients maintained a normal CRP level, but it was found that serum amyloid A (SAA) increased significantly in most patients that were tested; however, due to the limited amount of data, a statistical analysis was not performed.', 'Considering that COVID-19 in the secondary epidemic area may occur after the primary epidemic in the main epidemic area, and its toxicity and pathogenicity may be weakened, SAA detection in the secondary epidemic area should be considered to evaluate the occurrence and development of COVID-19 infection.', 'We will focus on the detection of SAA in COVID-19-infected people in follow-up studies.', 'In this study, we found that the ratio between various blood parameters and CRP was significantly increased in patients who had indirect contact with the disease in the epidemic area, suggesting that the change in the reactivity of CRP in COVID-19 infection is greater than the response of various blood parameters.', 'In addition, considering that COVID-19 in the secondary epidemic area may occur after the primary epidemic in the main epidemic area, its toxicity and pathogenicity may be weakened.', 'CRP can be used as a predictive factor prior to changes in leukocytes, lymphocytes, neutrophils and other inflammatory-related blood parameters to comprehensively evaluate the occurrence and development of COVID-19 infection.']</t>
   </si>
   <si>
-    <t>['Some advantages of inorganic fluorogenic ligands include their tunability, distinct properties (like anticancer drug development and their ability to induce G4s), and structures [66, 68, 71] .In the following, we will focus on the organic fluorogenic ligands/probes.', 'Other Ligands Reported in the Literature as G4 Fluorescence Turn-On Ligands\n\nAs summarized in Table 1 , several fluorescence turn-on ligands were also demonstrated to recognize G4.', 'Later on, the same group (motivated again by the incredible potential of BRACO-19) demonstrated the development of a tri-substituted (3,6,9-trisubstituted acridine; cyanine dye 1) water-soluble acridine-based dual probe, a pH-sensitive and G4 fluorescence probe containing monomethine cyanine dye (which has fluorescence excitation and emission wavelengths of 400 nm and 475 nm, respectively) [133] .', "The interaction occurs through similar approach with Pyro-TASQ.-Multifunctional (stabilization and fluorescence turn-on) -Can bind to both DNA and RNA G4s -G4 visualization in live cells using the multi-photon microscopy -Allows both RNA and DNA G4 imaging using confocal microscopy -No binding competition with other G4 ligands shown [108, 145] \n\nFuture Perspectives of the Development and Applications of Fluorescent Turn-On Ligands\n\nAs seen from above sections, most ligands have different binding modes, and G4 and other nucleic acid structural motifs can sometimes significantly influence the ligand's fluorescence enhancement [122] .", 'Also, future high-resolution 3D structures with bound ligands will potentially allow a better picture of the ligand binding modes for future ligand design and G4 targeting.Also, some of these ligands showed a decreased fluorescent enhancement in presence of other competing ligands, as such, ligand competition studies with other ligands are needed to fully ascertain the selectivity of the ligands of interest, this will allow the design and development of ligands with better fluorescent properties and this could prevent the off-target effects of some of these ligands (that leads to cell cytotoxicity) [87] , and can also address the false positive and false negative results [97] produced by some of the ligands as a result of their abilities to induce topological changes [101] .', 'G-Quadruplex-Containing Nucleic Acid Aptamers\n\nWhile biologically-relevant G4 targets can be detected and visualized by fluorescent turn-on ligands in vitro and in cells as described above, another exciting and emerging field of research is the identification and development of G4-containing aptamers, which may serve as molecular tools for diverse chemical and biological applications.', 'Current Challenges and Future Perspectives of the Development and Applications of G4-Containing Aptamers\n\nSince the thrombin-binding aptamer (TBA, Table 2 ) was first identified as a G4-containing aptamer, G4 structure has been reported in a number of DNA and RNA aptamers towards various targets ( Table 2 ).', "Nonetheless, the development and applications are still in the early stages and suffer from several challenges.Firstly, high-resolution structures of targets with and without aptamer bound are necessary to reveal the structural basis of these complexes, which will allow development and optimization of aptamer's sequence and structure, and provide insights to further enhance the aptamer's properties for desired applications.", 'In addition, new experimental structure mapping techniques [32, 48] and cell imaging have been developed to examine G4 folding, allowing us to verify the formation of G4 structure in the G4-containing aptamer in both in vitro and in vivo settings.Thirdly, most of the G4-containing aptamer-based systems are still proof-of-concept studies, which were performed in vitro or in cells.', 'With such developments achieved in the investigation and applications of G4s, the study of G4 fluorescent turn-on ligands and G4-containing aptamers is expected to open new perspectives towards wider biological understanding and applications of G4s both in vitro and in cells.']</t>
-  </si>
-  <si>
     <t>['Introduction\n\nThe type of pneumonia caused by the 2019 novel coronavirus disease (COVID-19) is a highly infectious disease, and the ongoing outbreak has been declared by WHO as a global public health emergency.', '1,2 COVID-19 pneumonia was first reported in Wuhan, Hubei Province, China, in December, 2019, followed by an outbreak across Hubei Province and other parts of the country.', '1 \n\n,2 A study in\n\nThe Lancet by Huang and colleagues 2 reported the epidemiological, clinical, laboratory, and radiological characteristics, as well as treatment and clinical out comes, of patients with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics and vertical transmission potential of COVID-19 pneumonia in pregnant women is unknown.', 'Urgent questions that need to be addressed promptly include whether pregnant women with COVID-19 pneumonia will develop distinct symptoms from non-pregnant adults, whether pregnant women who have confirmed COVID-19 pneumonia are more likely to die of the infection or to undergo preterm labour, and whether COVID-19 could spread vertically and pose risks to the fetus and neonate.', 'Answers to these questions are essential for formulating the principles of obstetric treatment for pregnant women with COVID-19 infection.', 'Therefore, to facilitate efforts, both in China and glo bally, to prevent and control COVID-19 pneumonia in children and pregnant women, 3 we retrospectively collected and analysed detailed clinical data from pregnant women with laboratory-confirmed COVID-19 infection at Zhongnan Hospital of Wuhan University, Wuhan, China.', 'In this study we present clinical features of pregnant women with confirmed COVID-19 pneumonia and examine the vertical trans mission potential of COVID-19.', 'Study design and patients\n\nWe did a retrospective review of medical records from nine pregnant women with COVID-19 pneumonia admitted to Zhongnan Hospital of Wuhan University from Jan 20 to Jan 31, 2020.', 'Diagnosis of COVID-19 pneumonia was based on the New Coronavirus Pneumonia Prevention and Control Program (4th edition) published by the National Health Commission of China.', '4 All nine pregnant women with COVID-19 pneumonia tested positive for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) by use of quantitative RT-PCR (qRT-PCR) on samples from the respiratory tract.This study was reviewed and approved by the Medical Ethical Committee of Zhongnan Hospital of Wuhan University (approval number 2020004).', '5 Amniotic fluid samples from patients with COVID-19 pneumonia were obtained via direct syringe aspiration at the time of delivery.', 'Additionally, breast milk samples from patients with COVID-19 pneumonia were collected after their first lactation.', 'We found two articles: one titled \n\nAdded value of this study\n\nWe retrospectively reviewed clinical records, laboratory findings, and chest CT scans for nine pregnant women with laboratoryconfirmed COVID-19 pneumonia.', 'None of the patients developed severe COVID-19 pneumonia or died.', 'Implications of all the available evidence\n\nThe clinical characteristics of COVID-19 pneumonia in pregnant women were similar to those of non-pregnant adult patients with COVID-19 pneumonia.', 'Based on data from this small group of patients, there is currently no evidence of vertical transmission in pregnant women who develop COVID-19 pneumonia in the third trimester.the sequence of Wuhan-Hu-1 (MN908947).', 'All patients had a history of epidemiological exposure to COVID-19.', 'However, none of the nine patients developed severe pneumonia, requiring mechanical ventilation, or died of COVID-19 pneumonia, as of Feb 4, 2020.', 'Pregnancy complications that appeared after the onset of COVID-19 infection included fetal distress (in two of nine patients) and premature rupture of the membrane (in two of nine; table 1).All patients were given oxygen support (nasal cannula) and empirical antibiotic treatment.', 'Six patients were administered antiviral therapy (table 1) .Data from laboratory tests showed that five of the nine pregnant women with COVID-19 pneumonia had lymphopenia (&lt;1·0 × 10⁹ cells per L).', 'Discussion\n\nWe report clinical data from nine pregnant women with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics of these patients with COVID-19 infection during pregnancy were similar to those of non-pregnant adults with COVID-19 infection, as previously reported.', 'Notably, based on our findings in these nine patients, there is currently no evidence to s uggest that development of COVID-19 pneumonia in the third trimester of pregnancy could lead to the occurrence of severe Pregnant women are particularly susceptible to respiratory pathogens and severe pneumonia, because they are at an immunosuppressive state, and physiological adaptive changes during pregnancy (eg, diaphragm elevation, increased oxygen consumption, and oedema of respiratory tract mucosa) can render them intolerant to hypoxia.', 'In the current study, we treated nine pregnant women with COVID-19 pneumonia in 11 days from Jan 20 to Jan 31, 2020.', 'Considering that SARS-CoV-2 has up to 85% sequence similarity with SARS, [11] [12] [13] [14] although none of our patients developed severe pneumonia or died of COVID-19 infection, we should be alert to the possibility that the disease course and prognosis of COVID-19 pneumonia could follow the same trend as SARS in pregnant women.', 'However, our obser vations are based on a small number of cases and the time between illness onset and delivery was short.According to our study, pregnant women with COVID-19 pneumonia showed a similar pattern of clinical characteristics to non-pregnant adult patients, as recently reported.', '2, 15 Common symptoms at the onset of COVID-19 pneumonia for these women included a fever and cough, whereas less common symptoms were myalgia, malaise, sore throat, diarrhoea, and shortness of breath.', 'Additionally, increased concentrations However, none of these symptoms was present in every patient, nor were the symptoms specific to pregnant women with COVID-19 pneumonia.', "Therefore, we recommend that, in addition to using nucleic acid tests as the gold standard for the diagnosis of COVID-19 pneumonia, relevant clinical examinations are done, including blood counts and chest CT and a comprehensive evaluation of a patient's medical history, epidemiological exposure, and symptoms.", 'However, the causes of premature birth were not related to COVID-19 pneumonia: one patient had severe pre-eclampsia, one had a history of two stillbirths, one had a history of two caesarean sections and irregular contractions; and one had premature rupture of the membrane for about 12 h and suspected intrauterine infection.', 'Furthermore, the time period from onset of COVID-19 pneumonia to admission was only 3 days for this patient; therefore we reasoned that the fetal intrauterine growth restriction was more likely to be a symptom associated with pre-eclampsia.', 'None of the neonates needed special paediatric treatment.The main focus of this study was to investigate the possibility of intrauterine transmission of COVID-19 infection.', 'Our results show that SARS-CoV-2 was negative in all of the above samples, suggesting that no intrauterine fetal infections occurred as a result of COVID-19 infection during a late stage of pregnancy.', '10, 16 However, our observation of no fetal infection caused by intrauterine vertical transmission could be affected by our small sample size and the stage of pregnancy at the onset of COVID-19 infection.', '17 We did not collect samples of vaginal mucosa or shedding in birth canals, which prevented us from analysing whether COVID-19 could be transmitted during vaginal delivery.', 'Notably, however, our results showed that breastmilk samples from mothers with COVID-19 infection appeared to be free from SARS-CoV-2.On Feb 6, 2020, a neonate born to a pregnant woman with COVID-19 pneumonia tested positive for SARS-CoV-2 infection 36 h after birth.', '18, 19 Although many important clinical details of this single case were not available at the time of writing this report, there are reasonable concerns that COVID-19 could be contracted in the womb.', 'Reportedly, the pregnant woman had developed fever for 8 h and was suspected to have COVID-19 pneumonia on the basis of her typical chest CT image before admission; an emergency caesarean section was subsequently done, which was followed by confirmation of COVID-19 pneumonia.', 'Additionally, no direct testing of intrauterine tissue samples such as amniotic fluid, cord blood, or placenta was done to confirm that the COVID-19 infection in the neonate was due to intrauterine transmission.', 'Therefore, we cannot conclude whether or not intrauterine COVID-19 infection occurred in this particular case.', 'Nonetheless, this single case of an infected neonate suggests that we should pay special attention to prevent infections in newborn babies born to mothers with COVID-19 pneumonia.This study is limited by the small sample size and retrospective method.', 'The effect of COVID-19 infection on the fetus in the first or second trimester of pregnancy remains to be clarified.', 'Fourth, whether COVID-19 could damage the placenta, which represents an important link in vertical transmission, also needs to be further investigated.', 'Future investigations of these issues and follow-up studies of pregnant women with COVID-19 infection, as well as neonates, will be necessary to ascertain the safety and health of mothers and babies exposed to SARS-CoV-2.In summary, the symptoms of pregnant women with COVID-19 pneumonia were diverse, with the main symptoms being fever and cough.', 'Considering the significance of this ongoing global public health emergency, although our conclusions are limited by the small sample size, we believe that the findings reported here are important for understanding the clinical characteristics and vertical transmission potential of COVID-19 infection in pregnant women.']</t>
   </si>
   <si>
-    <t>['The content of the slogan is monologic, a kind of oblique expression of Chinese paternalism towards its ethnic minorities; indeed, it is the naturalisation of its governance that the Chinese state wants to reinforce through its direct intervention in tourist development.For the sake of clarity, the topic will be treated schematically by dividing this chapter into three sections.', 'First, a general perspective on the development of tourism in the Tibet Autonomous Region (TAR) will be given.', 'Lastly, some political aspects of the development of tourism will be pointed out through looking at the representation of Tibetan culture found in the media and various types of propaganda displayed on the streets.', "A General Perspective on the Development of Tourism in Lhasa\n\nAt the beginning of the 1980s, Lhasa (literally 'place of gods') began to revive its former position not only as a major pilgrimage site for Tibetan Buddhists, but also as an alluring tourist destination for both domestic and international tourists.", 'During the early stages of this development, some local tourist agencies and hotels were founded to accommodate the growing number of tourists.', "These Chinese tourists are from the recently emerging affluent middle class, mainly from coastal metropolises such as Beijing and Shanghai, or adjacent provinces such as Sichuan.It is notable that even during a period of considerable political instability in Lhasa, the authorities seem to have been very successful in establishing Tibet's tourism brand (lüyou pinpai) within and outside China during the late 1990s, which contributed to the significant progress of domestic tourism in subsequent years.During the research period in Lhasa between 2000 and 2002, the government's efforts to celebrate and stabilise the development of tourism were evident, as indicated by a number of symbolic events.", "The theme of 'Tibet Tourism Day' that year was 'Tourism and Youth', and was explicitly intended to make the people -particularly the educated youth -more aware of the significance of tourism for the development of Tibet.", 'Local newspaper articles give a strong sense of how confident the authorities felt in the development of tourism.', "During the tourist season, the 'miraculous success' of the industry was repeatedly reported with hyperbolic expressions such as 'Extraordinarily Explosive'; 'TAR's tourism has entered its 'Golden Age'; 'Let Tourism be a Dragon's Head for the TAR's Development'.", "This situation is part of a general problem concerning Lhasa's (and TAR's) economic development, since high investment in infrastructure and facilities has not been matched by the investment in education which would provide the number of skilled local workers necessary for further development to take place (Fischer, 2005) .", "In 1991 the TTB began publishing its tourist magazine, Tibet Tour (Xizang lüyou), in which Tibetan culture and traditions were introduced through alluring photographs of Tibet's natural landscapes, in a similar style to the Western magazine National Geographic.Towards the end of the 1990s, some academic (or religious) literature on Tibet, which had previously stimulated Orientalist fascinations in the West, were translated into Chinese.", 'However, what is different from the previous era, what the development of tourism has brought, is the systematic introduction of economic value into the core of traditional Tibetan culture.', "Although the slogans were somewhat abstract and so perhaps not able to fully capture people's attention, their overwhelming abundance was potentially effective in encouraging local people to appreciate the importance of tourism for Lhasa's economy.While slogans about the development of tourism were predominant in street propaganda, there were also other types of slogan, for example 'Tibet -Paradise of All Dream Seekers', and 'Tibet -A Land that Entices People'.", 'It is possible that these were targeting Chinese tourists in order to lend distinctive value to their journeys, but they also seemed to function simultaneously as a way of letting local Tibetans see their living space from a tourist perspective and taste.', 'Since tourism is a relatively new social and economic practice for Tibetans, these types of propaganda may be desirable and necessary in order to stabilise and stimulate the further development of the industry.', 'However, at the same time, this slogan can be interpreted as a typically socialist way of manifesting the validity of, and confidence in, recent econo-political reforms in which tourism is instrumental.As often pointed out, the development of tourism inevitably involves state intervention (e.g.', 'Since the development of tourism may potentially stimulate nationalistic or separatist sentiments among the ethnic population, it is often observed that the state engages in systematic controls over its various marketing processes, particularly the ideological aspect of its development.', 'This chapter has touched on some political aspects of the development of tourism, while sketching general tourist motivations to visit Tibet.']</t>
-  </si>
-  <si>
     <t>['We found six studies on the characteristics of patients infected with COVID-19.', 'Our search did not reveal any report on the characteristics of patients with COVID-19 infection in other imported city except Wuhan.', 'Added value of this study\n\nWe reported the characteristics of 262 cases infected with COVID-19 from 57 hospitals across Beijing and provided the proportion of the COVID-19 infection on the severe cases to mild, asymptomatic and non-pneumonia cases.', 'We compared the epidemic features between COVID-19 and 2003 SARS for learn lessons and control the outbreak.', 'Implications of all the available evidence\n\nThe COVID-19 infection was generally susceptible, and with a relatively low fatality rate.', 'The measures to prevent transmission was very successful at early stage, the next steps on the COVID-19 infection should be focused on early isolation of patients and quarantine for close contacts in families and communities in Beijing and China.', 'Introduction\n\nAs of February 10, 2020, a total of 40,554 cases with laboratoryconfirmed COVID-19 infection have been detected in the world reported by the World Health Organization (WHO).', '1 There have been 42,638 accumulated confirmed cases of COVID-19 infections, of them 1016 patients has died, 3996 have been discharged and 88% remain in hospital in mainland of China, 2 and 342 confirmed cases were found in Beijing.', '[4] [5] Given that the current COVID-19 outbreak is moving rapidly, the recently published literatures on the epidemic features of COVID-19 mainly focus on Wuhan, China, 6-7 but the information on the imported city or region is exceedingly rare.In this study, we provide an analysis of data on the characteristics of patients with confirmed COVID-19 infection throughout Beijing as an imported metropolis, and unravel the proportion on the severe cases to the mild, asymptomatic and non-pneumonia cases.', 'For learn lessons and control the outbreak, we compare the epidemic features between COVID-19 and 2003 SARS.', 'Study design\n\nThis was a retrospective study, we enrolled patients with COVID-19 infection who was transferred from the hospitals of Beijing to the designated hospitals for special treatment infectious diseases by Beijing Emergency Medical Service (EMS) from Jan 20 to Feb 10, 2020.', 'The features were compared between COVID-19 and 2003 SARS.', 'Definitions\n\nA confirmed case was defined as a suspected case with the laboratory test for the COVID-19 from the respiratory specimens show positive result by the real-time reverse-transcription-polymerasechain-reaction (RT-PCR) assay, while a suspected case was defined as a case that fulfilled both the following criteria: have fever, radiographic evidence of pneumonia, low or normal white-cell count or low lymphocyte count in clinic; and have a travel to Wuhan or direct contact with patients from Wuhan who have fever or respiratory symptoms within 14 days before illness in the epidemic history according to the new coronavirus pneumonial prevention and control program, and the new coronavirus pneumonial diagnosis and treatment program which were published by the National Health Commission of China.', 'Data collection\n\nWe modified the medical record form for the COVID-19 infection, which including demographic, epidemiological, clinical, laboratory test for the COVID-19, diagnostic classification, cluster case and outcome etc.', 'Laboratory confirmation of COVID-19 was detected in the first admission hospital and verified by the Beijing Center for Disease Control and Prevention (CDC).', 'Results\n\n262 patients who were identified as a confirmed COVID-19 infection were included in this study, those patients were transferred from 57 hospitals across Beijing to the designated hospitals by Beijing EMS from January 20 to February 10, 2020.', 'The fatality of COVID-19 infection was significantly lower in Beijing compared with the whole national (0.9% vs 2.4%, P &lt; 0.001), while the rate of discharged in Beijing was significantly higher than the whole national (14% vs 9.4%, P &lt; 0.001).', 'Beijing was the fourth most affected city or province in China for accumulative confirmed cases of the COVID-19 infection at the end of Jan 23, reduced to the 8th in Jan 25, to the 10th in Jan 27, and out of the top ten later.', 'From May 1st, the new confirmed case of SARS started to decline, but the COVID-19 confirmed cases was still moving in the mainland of China until Feb 10, 2020.', "12 Recently, the COVID-19 infection occurred and spread in the mainland of China, but the proportion of mild and asymptomatic cases versus severe and fatal cases for COVID-19 infection is currently still unknown that hampers realistic assessment of the virus's epidemic potential and complicates the outbreak response, 5 furthermore, the recent publications on the epidemiological and clinical characteristics mainly came from Wuhan, 6 , 7 , 13 the information about the imported city is exceedingly rare.", 'On the basis of this study, firstly we provided the proportion of severe versus common cases of the COVID-19 infection, which was approximately 1:4, the ratio of severe to mild, non-pneumonia and asymptomatic cases were 18%, 73%, 4% and 5% respectively, the changes and prognosis of those four categories should be future observed in hospitals.', '[15] [16] Therefore, to identify and control the non-pneumonia and asymptomatic cases are the important measures to prevent transmission on the COVID-19.', 'But 89.1% of the residents of Beijing had been travel to Wuhan or contacted with the confirmed case in 14 days especially in the early stage of COVID-19 infection, after Feb. 1, the number of local confirmed cases began to exceed imported cases.', 'In this study, 133 patients from more than 20 families were infected, same as Wuhan, the infection of COVID-19 in Beijing was of clustering onset too.', 'The fatality of patients infected by COVID-19 in Beijing was 0.9%, significantly lower than the whole national average level, and not resembling that in previous studies.', 'Among the top 10 provinces and cities with accumulative confirmed cases of COVID-19 cases, the ranking of Beijing has fallen faster than other provinces.', 'Therefore, Beijing was successful in preventing and controlling on the COVID-19 infection, it benefits from the correct leadership and experience of SARS in 2003.', 'From the perspective of death of SARS, as of May 11, 2003 , the fatality of the SARS was 5.0%, while the COVID-19 was 2.4% in the whole national, there was no significant with the fatality between SARS and the COVID-19 infection in the early stage, but different in the later, the fatality rate of SARS was up to 10% at last.', 'First, only the COVID-19 confirmed cases transferred by EMS in Beijing were included, the first admission to the designated hospitals cases were not enrolled, nor other provinces or cities which dominated by imported.', 'Last, the official data of 2003 SARS is a month later than the outbreak, its epidemic development curve is not precise.', 'However, this study represents characteristics of early stage of COVID-19 in Beijing, which has certain value for future control and research.In conclusion, the characteristics of patients infected with COVID-19 in Beijing were obviously different from Wuhan with a lower fatality and higher discharge rate, new infected patients has shifted from the imported to local gradually.', 'The next step in preventing and controlling the COVID-19 infection should be focused on the early isolation of patients and quarantine for close contacts in families and communities.']</t>
   </si>
   <si>
@@ -167,27 +144,27 @@
     <t>['[8] [9] [10] The etiological, epidemiological, and clinical characteristics of COVID-19 epidemic in Wuhan have been investigated since the disease outbreak.', '3, [5] [6] [7] [10] [11] [12] [13] [14] The occurrences of COVID-19 cases outside Wuhan were reported.', 'As COVID-19 is being rapidly exported to a growing number of countries, its epidemiological and clinical features outside the outbreak zone are important for the development of prophylactic options.Currently, COVID-19 cases reported are all patients with pneumonia, rather than those without pneumonia.', 'Furthermore, the disease course of COVID-19, the duration of viral existence, and the transmissibility of SARS-CoV-2 in asymptomatic carriers remain unknown.', 'Here, we report a series of COVID-19 cases admitted into an infectious disease hospital that is responsible for quarantine and treatment of COVID-19 assigned by the government in Beijing, China.', 'Stepwise backward multivariate Cox regression analysis was performed to determine factors independently predicting the progression of COVID-19.', 'Epidemiological characteristics\n\nA total of 55 consecutive patients with laboratory-confirmed COVID-19 were enrolled in this study.', 'Of the 19 cases, 14 ever hosted their sick relatives from Wuhan, 2 ate with late-diagnosed friends from Wuhan, 2 shared a railway carriage with a COVID-19 patient, and 1 attended a meeting with a late-diagnosed colleague.', 'The mean incubation period of COVID-19 was .', 'This duration was 9.24 (7.10-11.37) days for COVID-19 patients without pneumonia (n=17) and 10.45 (8.10-12.81) days for those with pneumonia (n=11).Of the 5 remaining cases without an approved exposure history, 2 had unusual exposure.', "Her sister and sister's husband from Wuhan visited her family and lived in the same building in a remote suburb of Beijing.Six days later, she became ill and was finally diagnosed as COVID-19.", "During the entire course, her sister' family members were not ill or even discomfort, indicating that asymptomatic carriers transmit SARS-CoV-2.Clinical and laboratory parameters of COVID-19 patients with and without pneumonia at the admission .", 'Common, severe, and extremely severe types were combined as COVID-19 patients with pneumonia.', 'Compared with COVID-19 patients without pneumonia, those with pneumonia had higher levels of interleukin-6, B lymphocyte proportion, erythrocyte sedimentation rate, and very low count (&lt;190/µL) of CD8 + T cells (Table 2) .The copyright holder for this preprint .', 'Thus, the incubation from this study should be important in quarantining close contactors outside the outbreak zone.The durations of COVID-19 course and SARS-CoV-2-positive course are not reported previously.', 'According to the discharge criteria, COVID-19 course is approximately 2 weeks, which is quite in consistent with SARS.', '22 To our knowledge, this was the first study to characterize the differences in the clinical features and laboratory findings between COVID-19 patients with and without pneumonia.', 'Unlike those without pneumonia, one-third of COVID-19 patients with pneumonia had very low account (&lt;190/µL) of CD8 + T cells.', 'In addition, serum level of IL-6 was higher in COVID-19 patients with pneumonia than in those without pneumonia (Table 2 ).', 'These data suggest that CD8 + T cell exhaustion and IL-6-based inflammation might play an important role in the development of COVID-19.It is critical to identify COVID-19 patients who are most likely to have poor outcomes so that prevention and treatment efforts can be focused.', '24 Here, we reported that serum IL-6 and lactate at the admission independently predicted poor outcomes of COVID-19 patients, after the adjustment with other significant factors in the univariate Cox analysis (Table 3) .', 'Increased lactate in turn impairs the CD8 + T cell-mediated antiviral immunity.For the first time, the dynamic changes of laboratory parameters of COVID-19 patients with and without pneumonia were evaluated during hospital stay.', '28 Finally, we characterized the epidemiological features including the incubation period, time to RT-PCR conversion of SARS-CoV-2, COVID-19 course, and the transmissibility SARS-CoV-2 in asymptomatic carriers.', 'Old age, hypertension, interleukin-6, and CD8 + T cell exhaustion were significantly associated with the development of pneumonia.', 'Circulating interleukin-6 and lactate independently predicted COVID-19 progression.', 'https://doi.org/10.1101/2020.02.28.20028068 doi: medRxiv preprint 15 COVID-19 progression.', 'This study not only elucidates some mechanisms of COVID-19 progression, but also provides epidemiological evidence to prevent COVID-19 epidemic outside the outbreak zone.. CC-BY-NC-ND 4.0 International license It is made available under a is the author/funder, who has granted medRxiv a license to display the preprint in perpetuity.The copyright holder for this preprint .', 'The mean duration from onset to admission was 5 (Table 3) .We then evaluated the dynamics of clinical and laboratory parameters during hospital stay between COVID-19 patients with pneumonia and those without pneumonia and re-categorized the patient with progressive disease.', 'Of the parameters evaluated, 6showed different trends between COVID-19 patients with and without pneumonia (P&lt;0.001 for each, GEE).', 'Discussion\n\nThe epidemiological and clinical features of COVID-19 in Beijing might represent the features of COVID-19 outside the outbreak zone.']</t>
   </si>
   <si>
-    <t>['Introduction\n\nThe development of vaccines directed against clinical relevant viral pathogens is perhaps the most important contribution of immunology to public health.', 'Many researches have been focused on the characterization of protective monoclonal antibodies (mAbs) targeting widely conserved hemagglutinin (HA) regions among different influenza subtypes [5] [6] [7] [8] [9] [10] [11] [12] .Considering the clinical potential of mAbs endowed with such peculiar cross-neutralizing activity, their epitope characterization represents a valuable tool to identify functional Clinical and Developmental Immunology 3 and conserved epitopes potentially useful in an epitope-based vaccinal strategy.', 'However, considering methods complexity and inability to be applied to certain complexes together with low throughput features, X-ray crystallography and NMR represent useful tools to fully characterize the epitope of a single mAb but are not suitable for mapping all antigenic determinants.', 'Different experimental methods involving MS are widely described in the scientific literature.', 'In particular, the computational analysis is generally performed excluding the "nonepitope" antigen regions (Ag unbound regions) followed by the mapping of Ag amino acid residues derived from MS analysis (e.g., not subjected to proteolytic digestions or deuterium incorporation) on the Ag crystal structure.', 'An online database named MimoDB 2.0 (http://immunet.cn/ mimodb/) is also available online; it collects from the scientific literature thousands of mimotopes identified from random libraries providing information about identification methods, libraries, and respective protein [23] .Identification of mimotopes is a powerful technique as it easily allows to map many antigenic determinants at the same time using a polyclonal serum or to identify a single mAb epitope at a medium resolution [24, 25] .', 'Continuous epitopes include ∼10% of all known antibodies epitopes; while they comprise a minority of all epitopes found in nature, many computational methods focus on their mapping [26, 27] .Sequence-based algorithms represent the first attempt to predict B-cell epitopes located on a protein surface without a priori immunological data.', 'Conformational epitopes mapping represents a challenging goal in different biological and medical fields.', 'Results succeeded by these three algorithms are related to the usage, besides many physiochemical properties, of matrices that try to identify specific nonlinear patterns for epitopic and non-epitopic patches.Clinical and Developmental Immunology Considering results achieved by CBTOPE, Zhang et al.', 'As an example, the IEDB database (http://www.iedb.org/) collect a large number of peptides already identified, documented in literature, or voluntarily submitted by users.', 'It also provides analysis and prediction tools that require only antigen primary sequence [28] .Another example of database comprising huge number of peptides characterized and available in the literature is SYFPEITHI (http://www.syfpeithi.de/), which includes as well algorithms calculating binding affinity of a query peptide to a specific MHC type [55, 56] .Other more specific databases are available to date, most notably the HIV-dedicated B-and T-cell epitope database (http://www.hiv.lanl.gov/).', 'These techniques allowed to model proteins of unknown structures and, most importantly, to address experimental studies in the comprehension of protective antigen regions involved in the docking but are not suitable to complete antigenic mapping.', 'Experimental techniques for T-cell epitopes mapping can be roughly divided in two main groups defined as cell based and cell free.', 'Clinical and Developmental Immunology 3.5.', 'Discussion\n\nSeveral approaches combining the use of computational analysis with laboratory techniques have been widely described in the scientific literature [88] [89] [90] [91] [92] [93] .', 'Here we take influenza virus as an example of hypervariable pathogen that requires the development of novel vaccinal strategies to elicit a broad immune response.', 'The identification of conserved protein domains, shared among the different viruses and able to elicit a protective immune response, opens new perspectives in the development of epitope-based vaccines.']</t>
-  </si>
-  <si>
     <t>['Early reports predicted the onset of a potential Coronavirus outbreak given the estimate of a reproduction number for the 2019 Novel (New) Coronavirus (COVID-19, named by WHO on Feb 11, 2020) which was deemed to be significantly larger than 1 (ranges from 2.24 to 3.58) [3] .The chronology of COVID-19 infections is as follows.', 'By January 2, 2020, 41 admitted hospital patients had been identified as having laboratory-confirmed COVID-19 infection, less than half of these patients had underlying diseases, including diabetes, hypertension, and cardiovascular disease [6] .', 'It was concluded that the COVID-19 is not a super-hot spreading virus (spread by one patient to many others), but rather likely spread due to many patients getting infected at various locations throughout the hospital through unknown mechanisms.', 'As of January 22, 2020, a total of 571 cases of the 2019-new coronavirus (COVID-19) were reported in 25 provinces (districts and cities) in China [7] .', 'On January 25, 2020, a total of 1975 cases were confirmed to be infected with the COVID-19 in mainland China with a total of 56 deaths [8] .', 'The first case of COVID-19 infection confirmed in the United States led to the https://doi.org/10.1016/j.jaut.2020.102433 Received 10 February 2020; Received in revised form 17 February 2020; Accepted 18 February 2020 description, identification, diagnosis, clinical course, and management of this case.', 'Further, the first case of human-to-human transmission of COVID-19 was reported in the US on January 30, 2020 (https://www.cdc.gov/media/ releases/2020/p0130).', 'Symptoms\n\nThe symptoms of COVID-19 infection appear after an incubation period of approximately 5.2 days [12] .', 'The period from the onset of COVID-19 symptoms to death ranged from 6 to 41 days with a median of 14 days [8] .', 'The most common symptoms at onset of COVID-19 illness are fever, cough, and fatigue, while other symptoms include sputum production, headache, haemoptysis, diarrhoea, dyspnoea, and lymphopenia [5, 6, 8, 13] .', '2) .It is important to note that there are similarities in the symptoms between COVID-19 and earlier betacoronavirus such as fever, dry cough, dyspnea, and bilateral ground-glass opacities on chest CT scans [6] .', 'However, COVID-19 showed some unique clinical features that include the targeting of the lower airway as evident by upper respiratory tract symptoms like rhinorrhoea, sneezing, and sore throat [15, 16] .', 'Importantly, whereas patients infected with COVID-19 developed gastrointestinal symptoms like diarrhoea, a low percentage of MERS-CoV or SARS-CoV patients experienced similar GI distress.', 'Therefore, development of methods to identify the various modes of transmission such as feacal and urine samples are urgently warranted in order to develop strategies to inhibit and/or minimize transmission and to develop therapeutics to control the disease.', 'Pathogenesis\n\nThe severe symptoms of COVID-19 are associated with an increasing numbers and rate of fatalities specially in the epidemic region of China.', 'The percentage of death among the reported 2684 cases of COVID-19 was approximately 2.84% as of Jan 25, 2020 and the median age of the deaths was 75 (range 48-89) years [8] .Patients infected with COVID-19 showed higher leukocyte numbers, abnormal respiratory findings, and increased levels of plasma pro-inflammatory cytokines.', 'One of the COVID-19 case reports showed a patient at 5 days of fever presented with a cough, coarse breathing sounds of both lungs, and a body temperature of 39.0°C.', "The patient's sputum showed positive real-time polymerase chain reaction results that confirmed COVID-19 infection [14] .", 'The main pathogenesis of COVID-19 infection as a respiratory system targeting virus was severe pneumonia, RNAaemia, combined with the incidence of ground-glass opacities, and acute cardiac injury [6] .', 'Significantly high blood levels of cytokines and chemokines were noted in patients with COVID-19 infection that included IL1-β, IL1RA, IL7, IL8, IL9, IL10, basic FGF2, GCSF, GMCSF, IFNγ, IP10, MCP1, MIP1α, MIP1β, PDGFB, TNFα, and VEGFA.', 'Transmission\n\nBased on the large number of infected people that were exposed to the wet animal market in Wuhan City where live animals are routinely sold, it is suggested that this is the likely zoonotic origin of the COVID- 19 .', 'Initial reports identified two species of snakes that could be a possible reservoir of the COVID-19.', 'Genomic sequence analysis of COVID-19 showed 88% identity with two bat-derived severe acute respiratory syndrome (SARS)-like coronaviruses [19, 20] , indicating that mammals are the most likely link between COVID-19 and humans.', 'Several reports have suggested that person-to-person transmission is a likely route for spreading COVID-19 infection.', 'Importantly, the sequence of the receptor-binding domain of COVID-19 spikes is similar to that of SARS-CoV.', 'Phylogenetic analysis\n\nWorld Health Organisation (WHO) has classified COVID-19 as a β CoV of group 2B [23] .', 'Ten genome sequences of COVID-19 obtained from a total of nine patients exhibited 99.98% sequence identity [19] .', 'The genetic sequence of the COVID-19 showed more than 80% identity to SARS-CoV and 50% to the MERS-CoV [5, 19] , and both SARS-CoV and MERS-CoV originate in bats [24] .', 'Thus, the evidence from the phylogenetic analysis indicates that the COVID-19 belongs to the genus betacoronavirus, which includes SARS-CoV, that infects humans, bats, and wild animals [25] .COVID-19 represents the seventh member of the coronavirus family that infects humans and has been classified under the orthocoronavirinae subfamily.', 'The COVID-19 forms a clade within the subgenus sarbecovirus [25] .', 'Based on the genetic sequence identity and the phylogenetic reports, COVID-19 is sufficiently different from SARS-CoV and it can thus be considered as a new betacoronavirus that infects humans.', 'The COVID-19 most likely developed from bat origin coronaviruses.', 'Another piece of evidence that supports the COVID-19 is of bat origin is the existence of a high degree of homology of the ACE2 receptor from a diversity of animal species, thus implicating these animal species as possible intermediate hosts or animal models for COVID-19 infections [20] .', 'Therapeutics/treatment options\n\nThe person-to-person transmission of COVID-19 infection led to the isolation of patients that were administered a variety of treatments.', 'At present, there are no specific antiviral drugs or vaccine against COVID-19 infection for potential therapy of humans.', 'Thus, these therapeutic agents can be considered to treat COVID-19 infection [27] .', 'Furthermore, there are a number of other compounds that are in development.', 'These include the clinical candidate EIDD-2801 compound that has shown high therapeutic potential aganist seasonal and pandemic influenza virus infections and this represents another potential drug to be considered for the treatment of COVID-19 infection [28] .', 'Along those lines, until more specific therapeutics become available, it is reasonable to consider more broad-spectrum antivirals that provide drug treatment options for COVID-19 infection include Lopinavir/Ritonavir, Neuraminidase inhibitors, peptide (EK1), RNA synthesis inhibitors.', 'It is clear however, that more research is urgently needed to identify novel chemotherapeutic drugs for treating COVID-19 infections.', 'In order to develop pre-and post-exposure prophylaxis against COVID-19, there is an urgent need to establish an animal model to replicate the severe disease currently observed in humans.', 'Several groups of scientists are currently working hard to develop a nonhuman primate model to study COVID-19 infection to establish fast track novel therapeutics and for the testing of potential vaccines in addition to providing a better understanding of virus-host interactions.7.', 'Future directions to control the spread of the disease Extensive measures to reduce person-to-person transmission of COVID-19 are required to control the current outbreak.', 'The early death cases of COVID-19 outbreak occurred primarily in elderly people, possibly due to a weak immune system that permits faster progression of viral infection [8, 12] .', 'Epidemiological changes in COVID-19 infection should be monitored taking into account potential routes of transmission and subclinical infections, in addition to the adaptation, evolution, and virus spread among humans and possible intermediate animals and reservoirs.']</t>
   </si>
   <si>
     <t>['Abstract\n\nBackground: Since the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) disease (COVID-19) outbreaks in Wuhan, China, healthcare systems capacities in highly endemic areas have been overwhelmed.', 'We aimed to characterize the clinical features of hospitalized patients with confirmed or suspected COVID-19, and develop a mortality risk index for COVID-19 patients.', 'Methods:\n\nIn this retrospective one-centre cohort study, we included all the confirmed or suspected COVID-19 patients hospitalized in a COVID-19-designated hospital from January 21 to February 5, 2020.', 'Wuhan city, as the epidemic area, is bearing enormous public health as well as medical burdens, and the epidemic condition of the city will robustly impact on the trends of COVID-19 epidemics nation-wide as well as worldwide.', 'Thus, an efficient and timely triage of COVID-19 patients with high mortality risk is crucial for relieving the public health burden.Highly notably, the current confirmation of SARS-CoV-2 infection is entirely based on the viral real-time reverse transcription polymerase chain reaction (RT-PCR) test result.', 'At the 17th COVID-19Prevention and Control Work Conference by the Hubei Government, it is reported that the overall positive rate of SARS-CoV-2 assay was only 30 -40% in Wuhan among all the detected specimens from highly clinical suspected patients.', 'This low detection rate, presumably due to a high rate of false negativity, of the current assay might lead to delay in diagnosing new COVID-19 patients as well as early discharge of infected patients who still carry the virus and thus remain as the potential infection .', 'https://doi.org/10.1101/2020.02.20.20025510 doi: medRxiv preprint 6 source.Given the current epidemiologic circumstance and the limited health system capacity, optimizing clinical management approach on COVID-19 patients is both critical and urgent.', 'Our current study was conducted aiming to characterize the clinical features of either confirmed or suspected COVID-19 patients who were hospitalized in a COVID-19-designated hospital in Wuhan, and to develop a mortality risk index, as an evaluation tool used for establishing a COVID-19 hierarchical management system in highly endemic areas.', 'Wuhan Hankou Hospital was one of the first designated by the Wuhan government to be responsible for admitting patients with confirmed or suspected COVID-19 from Wuhan in January 21, 2020.', 'All patients enrolled in this study were residences in Wuhan and treated according to the Chinese Guidance for COVID-19.', 'According to the Chinese COVID-19 prevention and control program (6th edition), severe disease was defined as meeting one of the following criteria: \n\nRT-PCR Test for SARS-CoV-2\n\nSpecimens from the upper respiratory tracts were collected from suspected patients with COVID-19 to extract SARS-CoV-2.', 'Development of a COVID-19 mortality risk index\n\nAs was significantly higher than those of grade two (5.6% [95% CI: 0% -11.3%]) and grade one (0%) (P .', "Changes of laboratory test results before death\n\nAmong 12 death patients with \n\nDiscussion\n\nIn this study, we comprehensively described the clinical characteristics of all the patients with either confirmed or suspected COVID-19 who were hospitalized in a COVID-19 designated hospital during a period from January 21 to February 5, 2020, and then developed a simple prognostic tool called ACP index, only composed of patient's age and CRP tested at admission, that could accurately predict the COVID-19-related mortality risk within 12 days after admission.", 'To our knowledge, this is the first-ever study to compare the clinical characteristics of pneumonia patients who were either positive or negative for SARS-CoV-2 by RT-PCR assay, and to develop a first-ever COVID-19 mortality risk index derived from patients in highly endemic areas during early stage of outbreak.In this large-sample size cohort, the percentage of pneumonia patients with positive results for SARS-CoV-2 result was around 40%, which was consistent with the report of Wuhan government.', 'In our cohort, an age of more than 60 years old indicates higher mortality in COVID-19 patients, which is consistent with previous studies on severe acute respiratory syndrome and MiddleEast respiratory syndrome (MERS) related pneumonia.', '15 In the current study, a CRP levels higher than 34 mg/L in the early course of COVID-19 is associated with increased mortality from SARS-CoV-2 infection, which may reflect an intense inflammatory response or/and an underlying secondary infection.Management decision for high risk patients with COVID-19 must be made quickly, which often based upon scanty evidence.', 'The ACP index, with a high level of differentiating power, can be regarded as such quality evidence in providing an efficient, feasible and accessible approach to establish a hierarchical management system of COVID-19 in the SARS-CoV-2 highly endemic areas where medical resources are extremely limited.', 'It is projected that this approach would benefit a considerable number of patients with COVID-19 by directing the medical resources appropriate for the severity of the disease, and thus reduce the mortality and save the socioeconomic resources.We also comprehensively describe the characteristics of severe (vs. mild) and death patients in our cohort.', 'In addition, we also noticed abnormal ALT and creatinine levels in most patients who died, but most of the abnormalities were mild, suggesting that COVID-19 patients may die primarily from respiratory failure caused by SARS-CoV-2 infection, rather than multiple organ failure.The high mortality rates in our study may be due to differences in the population composition.', 'To this end, a new prospective study is under the way to further investigate its value in triaging the COVID-19 patients.', 'Thirdly, the patients enrolled in this study were from a tertiary-care hospital and were more likely to have underlying comorbidities and severe diseases.It is estimated that more patients would belong to the grade one category in the primary care setting.In conclusion, the ACP index can predict COVID-19 related short-term mortality, which may be a useful and convenient tool for quickly establishing a COVID-19 hierarchical management system that can greatly reduce the medical burden and therefore mortality in highly endemic areas.. CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .']</t>
   </si>
   <si>
+    <t>['The COVID-19 Response Team assessed the clinical condition of screened individuals to determine the need for hospital admission or for home testing for SARS-CoV-2 and subsequent isolation.', '4 The COVID-19 Response Team handles patient flow to local hospitals and addresses specific issues about bed resources, emergency department overcrowding, and the need for patient transfer to other specialised facilities.', 'The algorithm is constantly updated to meet regional directives about hot zone extension and modalities for SARS-CoV-2 testing.Recent literature suggests that viral spread is still expected to grow, and the preparedness of public health systems will be challenged worldwide.', "5 In this context, the EMS is inevitably\n\nThe response of Milan's Emergency Medical System to the COVID-19 outbreak in Italy\n\nThe number of people infected with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), the virus causing coronavirus disease 2019 (COVID-19), is dramatically increasing worldwide.", '1 The first person-to-person transmission in Italy was reported on Feb 21, 2020, and led to an infection chain that represents the largest COVID-19 outbreak outside Asia to date.', 'Here we document the response of the Emergency Medical System (EMS) of the metropolitan area of Milan, Italy, to the COVID-19 outbreak.On Jan 30, 2020, WHO declared the COVID-19 outbreak a public health emergency of international concern.', 'Local medical authorities adopted specific WHO recommendations to identify and isolate suspected cases of COVID-19.', 'The EMS of the metropolitan area of Milan instituted a COVID-19 Response Team of dedicated and highly qualified personnel, with the ultimate goal of tackling the viral outbreak without burdening ordinary EMS activity (figure).', 'The team is active at all times and consists of ten health-care professionals supported by two technicians.The COVID-19 Response Team collaborated with regional medical authorities to design a procedural algorithm for the detection of suspected cases of COVID-19 (figure).', 'Patients were screened for: (1) domicile or prolonged stay in the hot zone (ie, where COVID-19 cases first appeared), or both; (2) \n\nFigure: EMS organisation and procedural algorithm of the COVID-19 Response Team\n\nThe activities of the EMS and the specifically instituted COVID-19 response team (A).', 'On the basis of caller needs, the receiver operators of the primary PSAP dispatch calls to either the ordinary EMS for primary medical assistance or to the COVID-19 response team for the assessment of risk factors for SARS-CoV-2 infection.', 'To address hospital needs and to receive medical directives, the COVID-19 response team maintains direct contacts with local hospitals and regional public health authorities.', 'The COVID-19 response team algorithm to detect and manage suspected cases of COVID-19 (B).', 'On the basis of risk factors for SARS-CoV-2 contagion and the clinical conditions of the screened individuals, the COVID-19 response team determines the need for hospital admission, home isolation, or SARS-Cov-2 testing.', 'The COVID-19 response team also provides counselling (ie, hygiene recommendations and preventive actions to limit respiratory diseases spread) for non-suspected cases and for patients isolated at home, including their cohabitants.', 'COVID-19=coronavirus disease 2019.', 'Specific algorithms, detailed protocols, and specialised teams must be fostered within each EMS department to allocate the right resources to the right individuals when cases of COVID-19 present.']</t>
+  </si>
+  <si>
+    <t>['How will country-based mitigation measures influence the course of the COVID-19 epidemic?', 'In our view, COVID-19 has developed into a pandemic, with small chains of transmission in many countries and large chains resulting in extensive spread in a few countries, such as Italy, Iran, South Korea, and Japan.', '1 Most countries are likely to have spread of COVID-19, at least in the early stages, before any mitigation measures have an impact.What has happened in China shows that quarantine, social distancing, and isolation of infected populations can contain the epidemic.', '1 This impact of the COVID-19 response in China is encouraging for the many countries where COVID-19 is beginning to spread.', 'In both places, COVID-19 has been managed well to date, despite early cases, by early government action and through social distancing measures taken by individuals.The course of an epidemic is defined by a series of key factors, some of which are poorly understood at present for COVID-19.', 'With R 0 values for COVID-19 in China around 2·5 in the early stages of the epidemic, 2 we calculate that approximately 60% of the population would become infected.', '3 By contrast, for COVID-19, the serial interval is estimated at 4·4-7·5 days, which is more similar to SARS.', '4 First among the important unknowns about COVID-19 is the case fatality rate (CFR), which requires information on the denominator that defines the number infected.', 'We are unaware of any completed large-scale serology surveys to detect specific antibodies to COVID-19.', 'Best estimates suggest a CFR for COVID-19 of about 0·3-1%, 4 which is higher than the order of 0·1% CFR for a moderate influenza A season.', 'The incubation period for COVID-19 is about 5-6 days.', '7 There have been few clinical studies to measure COVID-19 viraemia and how it changes over time in individuals.', 'In one study of 17 patients with COVID-19, peak viraemia seems to be at the end of the incubation period, 8 pointing to the possibility that viraemia might be high enough to trigger transmission for 1-2 days before onset of symptoms.', 'If these patterns are verified by more extensive clinical virological studies, COVID-19 would be expected to be more like influenza A than SARS.', 'For SARS, peak infectiousness took place many days after first symptoms, hence the success of quarantine of patients with SARS soon after symptoms started 7 and the lack of success for this measure for influenza A and possibly for COVID-19.The third uncertainty is whether there are a large number of asymptomatic cases of COVID-19.', 'Estimates suggest that about 80% of people with COVID-19 have mild or asymptomatic disease, 14% have severe disease, and 6% are critically ill, 9 implying that symptom-based control is unlikely to be sufficient unless these cases are only lightly infectious.The fourth uncertainty is the duration of the infectious period for COVID-19.', 'The infectious period is typically short for influenza A, but it seems long for COVID-19 on the basis of the few available clinical virological studies, perhaps lasting for 10 days or more after the incubation period.', '10 What do these comparisons with influenza A and SARS imply for the COVID-19 epidemic and its control?', 'COVID-19 had a doubling time in China of about 4-5 days in the early phases.', '3 Second, the COVID-19 epidemic could be more drawn out than seasonal influenza A, which has relevance for its potential economic impact.', 'Third, the effect of seasons on transmission of COVID-19 is unknown; 11 however, with an R 0 of 2-3, the warm months of summer in the northern hemisphere might not necessarily reduce transmission below the value of unity as they do for influenza A, which typically has an R 0 of around 1·1-1·5.', '12 Closely linked to these factors and their epidemiological determinants is the impact of different mitigation policies on the course of the COVID-19 epidemic.A key issue for epidemiologists is helping policy makers decide the main objectives of mitigation-eg, minimising morbidity and associated mortality, avoiding an epidemic peak that overwhelms health-care services, keeping the effects on the economy within manageable levels, and flattening the epidemic curve to wait for vaccine development and manufacture on scale and antiviral drug therapies.', '13 For COVID-19, the potential economic impact of self-isolation or mandated quarantine could be substantial, as occurred in China .No vaccine or effective antiviral drug is likely to be available soon.', 'Vaccine development is underway, but the key issues are not if a vaccine can be developed but where phase 3 trials will be done and who will manufacture vaccine at scale.', 'The number of cases of COVID-19 are falling quickly in China, 4 but a site for phase 3 vaccine trials needs to be in a location where there is ongoing transmission of the disease.', 'Some of the lessons from analyses of influenza A apply for COVID-19, but there are also differences.', 'The greater the reduction in transmission, the longer and flatter the epidemic curve (figure), with the risk of resurgence when interventions are lifted perhaps to mitigate economic impact.The key epidemiological issues that determine the impact of social distancing measures are what proportion of infected individuals have mild symptoms and whether these individuals will self-isolate and to what effectiveness; how quickly symptomatic individuals take to isolate themselves after the onset of symptoms; and the duration of any non-symptomatic infectious period before clear symptoms occur with the linked issue of how transmissible COVID-19 is during this phase.Individual behaviour will be crucial to control the spread of COVID-19.', '15 This plan is light on detail, given the early stages of the COVID-19 epidemic and the many uncertainties, but it outlines four phases of action entitled contain, delay, research, and mitigate.', 'Italy, South Korea, Japan, and Iran are at the mitigate phase and trying to provide the best care possible for a rapidly growing number of people with COVID-19.The known epidemiological characteristics of COVID-19 point to urgent priorities.', 'Peak demand for health services could still be high and the extent and duration of presymptomatic or asymptomatic transmission-if this turns out to be a feature of COVID-19 infection-will determine the success of this strategy.', '17 Super-spreading events are inevitable, and could overwhelm the contact tracing system, leading to the need for broader-scale social distancing interventions.Data from China, South Korea, Italy, and Iran suggest that the CFR increases sharply with age and is higher in people with COVID-19 and underlying comorbidities.', '11 \n\nFigure: Illustrative simulations of a transmission model of COVID-19\n\nA baseline simulation with case isolation only (red); a simulation with social distancing in place throughout the epidemic, flattening the curve (green), and a simulation with more effective social distancing in place for a limited period only, typically followed by a resurgent epidemic when social distancing is halted (blue).', 'These are not quantitative predictions but robust qualitative illustrations for a range of model choices.See Online for appendices 2, 3 R 0 of 2·5 or higher, reductions in transmission by social distancing would have to be large; and much of the changes in transmission of pandemic influenza in the summer of 2009 within Europe were thought to be due to school closures, but children are not thought to be driving transmission of COVID-19.', 'Data from the southern hemisphere will assist in evaluating how much seasonality will influence COVID-19 transmission.Model-based predictions can help policy makers make the right decisions in a timely way, even with the uncertainties about COVID-19.', 'Ongoing data collection and epidemiological analysis are therefore essential parts of assessing the impacts of mitigation strategies, alongside clinical research on how to best manage seriously ill patients with COVID-19.There are difficult decisions ahead for governments.']</t>
+  </si>
+  <si>
+    <t>['The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Further research is undoubtedly required to help define the exact mechanism of human-to-human and animal-to-human transmission to facilitate the development of a virus-specific vaccine.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
+  </si>
+  <si>
     <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'development', 'covid']</t>
   </si>
   <si>
-    <t>['development', 'literature', 'development', 'perspective', 'development', 'development', 'development', 'perspective', 'development', 'development', 'mapping', 'perspective', 'development']</t>
-  </si>
-  <si>
     <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
   </si>
   <si>
-    <t>['development', 'perspective', 'development', 'development', 'perspective', 'development', 'development', 'development', 'development', 'development', 'development', 'development', 'literature', 'development', 'development', 'perspective', 'development', 'development', 'development', 'development']</t>
-  </si>
-  <si>
     <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'literature', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'perspective', 'covid', 'covid', 'development', 'covid', 'covid']</t>
   </si>
   <si>
@@ -197,13 +174,19 @@
     <t>['covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
   </si>
   <si>
-    <t>['development', 'development', 'mapping', 'literature', 'mapping', 'literature', 'mapping', 'mapping', 'development', 'literature', 'literature', 'mapping', 'mapping', 'development', 'literature', 'development', 'perspective', 'development']</t>
-  </si>
-  <si>
     <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
   </si>
   <si>
     <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'literature', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
+  </si>
+  <si>
+    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid']</t>
   </si>
 </sst>
 </file>
@@ -598,19 +581,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -621,48 +604,39 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>7887</v>
+        <v>16532</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>16532</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
+        <v>23775</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -670,39 +644,51 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>20056</v>
+        <v>22433</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>23775</v>
+        <v>662</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -713,22 +699,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22433</v>
+        <v>28792</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -739,45 +722,39 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>662</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>8051</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
+        <v>25855</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -785,48 +762,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>28792</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
+        <v>22700</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>149</v>
+        <v>18427</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/EUvsVirus/output/Q1.xlsx
+++ b/EUvsVirus/output/Q1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -37,167 +37,19 @@
     <t>Search_words</t>
   </si>
   <si>
-    <t>Machine learning using intrinsic genomic signatures for rapid classification of novel pathogens: COVID-19 case study</t>
-  </si>
-  <si>
-    <t>The epidemiology and pathogenesis of coronavirus disease (COVID-19) outbreak</t>
-  </si>
-  <si>
-    <t>Clinical characteristics and intrauterine vertical transmission potential of COVID-19 infection in nine pregnant women: a retrospective review of medical records</t>
-  </si>
-  <si>
-    <t>Novel Coronavirus (COVID-19) Knowledge and Perceptions: A Survey of Healthcare Workers</t>
-  </si>
-  <si>
-    <t>Journal Pre-proof Featuring COVID-19 cases via screening symptomatic patients with epidemiologic link during flu season in a medical center of central Taiwan</t>
-  </si>
-  <si>
-    <t>Prevalence and clinical features of 2019 novel coronavirus disease (COVID-19) in the Fever Clinic of a teaching hospital in Beijing: a single-center, retrospective study</t>
-  </si>
-  <si>
-    <t>Impacts of Social and Economic Factors on the Transmission of Coronavirus Disease 2019 (COVID-19) in China *</t>
-  </si>
-  <si>
-    <t>14dbf1c01f2c422c1aefee32f094cc524ea03af1</t>
-  </si>
-  <si>
-    <t>5cb5e6a2d2fb1eb4ab85598211846a7061b24e92</t>
-  </si>
-  <si>
-    <t>bb8e3d331bb2975e1c644c8729b842797da2d626</t>
-  </si>
-  <si>
-    <t>5307fbd7cbc9b0b7e87ec4d1a8b99e544d81446f</t>
-  </si>
-  <si>
-    <t>0f15655bda78c3a62a03a19d8028f8f5cf5a1ef5</t>
-  </si>
-  <si>
-    <t>ce5f0965088e41390e671d3d16d65ccd777efa21</t>
-  </si>
-  <si>
-    <t>f734d47a423cbe54ec0cc9b2dee39470cf74fd9b</t>
-  </si>
-  <si>
-    <t>98b433f47b392ae93d124c96efa8df3385f72d5b</t>
-  </si>
-  <si>
-    <t>0eee9760aee0ca2fdf8d1d215c3689d5f8d84df5</t>
-  </si>
-  <si>
-    <t>de055f09fef2776bc78bac5d58c4131301b2025f</t>
-  </si>
-  <si>
-    <t>Catrin Sohrabi, Zaid Alsafi, Niamh O&amp;apos;neill, Mehdi Khan, Ahmed Kerwan, Ahmed Al-Jabir, Christos Iosifidis, Riaz Agha</t>
-  </si>
-  <si>
-    <t>Gurjit S Randhawa, P M Maximillian,  Soltysiak, Hadi El Roz, Camila P E De Souza, Kathleen A Hill, Lila Kari</t>
-  </si>
-  <si>
-    <t>Hussin A Rothan, Siddappa N Byrareddy</t>
-  </si>
-  <si>
-    <t>Huijun Chen, Juanjuan Guo, Chen Wang, Fan Luo, Xuechen Yu, Wei Zhang, Jiafu Li, Dongchi Zhao, Dan Xu, Qing Gong, Jing Liao, Huixia Yang, Wei Hou, Yuanzhen Zhang</t>
-  </si>
-  <si>
-    <t>Fang Li, Zhi Chun Feng, Yuan Shi</t>
-  </si>
-  <si>
-    <t>Akshaya Srikanth Bhagavathula, Wafa Ali Aldhaleei, Jamal Rahmani, Mohammadjavad Ashrafi Mahabadi, Deepak Kumar Bandari, Mohmmadjavad Mahabadi, Deepak Bandari, Srikanth Akshaya,  Bhagavathula</t>
-  </si>
-  <si>
-    <t>Wen-Hsin Hsih, Meng-Yu Cheng, Mao-Wang Ho, Chia-Huei Chou, Po-Chang Lin, Chih-Yu Chi, Wei-Chih Liao, Chih-Yu Chen, Lih-Ying Leong, Ni Tien, Huan-Cheng Lai, Yi-Chyi Lai, Min-Chi Lu</t>
-  </si>
-  <si>
-    <t>Ying Liang, Jingjin Liang, Qingtao Zhou, Xiaoguang Li, Fei Lin, Zhonghua Deng, Biying Zhang, Lu Li, Xiaohua Wang, Hong Zhu, Qingbian Ma, Xiaomei Tong, Jie Xu, Yongchang Sun</t>
-  </si>
-  <si>
-    <t>Yun Qiu, Xi Chen, Wei Shi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Background Previous studies on the pneumonia outbreak caused by the 2019 novel coronavirus disease (COVID-19) were based on information from the general population. Evidence of intrauterine vertical transmission was assessed by testing for the presence of SARS-CoV-2 in amniotic fluid, cord blood, and neonatal throat swab samples. Breastmilk samples were also collected and tested from patients after the first lactation., sore throat (in two), and malaise (in two), were also observed. Fetal distress was monitored in two cases. Five of nine patients had lymphopenia (&lt;1·0 × 10⁹ cells per L). Three patients had increased aminotransferase concentrations. None of the patients developed severe COVID-19 pneumonia or died, as of Feb 4, 2020. Nine livebirths were recorded. No neonatal asphyxia was observed in newborn babies. All nine livebirths had a 1-min Apgar score of 8-9 and a 5-min Apgar score of 9-10. Amniotic fluid, cord blood, neonatal throat swab, and breastmilk samples from six patients were tested for SARS-CoV-2, and all samples tested negative for the virus.Interpretation The clinical characteristics of COVID-19 pneumonia in pregnant women were similar to those reported for non-pregnant adult patients who developed COVID-19 pneumonia. Findings from this small group of cases suggest that there is currently no evidence for intrauterine infection caused by vertical transmission in women who develop COVID-19 pneumonia in late pregnancy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Background: During the first week of March, the surge of coronavirus disease 2019 cases reached over 100 countries with more than 100,000 cases. Healthcare authorities have already initiated awareness and preparedness activities beyond borders. A poor understanding of the disease among healthcare workers (HCWs) may result in delayed treatment and the rapid spread of infection. This study aimed to investigate the knowledge and perceptions of HCWs about COVID-19.A cross-sectional, web-based study was conducted among HCWs about COVID-19 during the first week of March 2020. A 23-item survey instrument was developed and distributed randomly to HCWs using social media; it required 5 minutes to complete. A chisquare test was used to investigate the level of association among variables at the significance level of p&lt;0.05.Of 529 participants, a total of 453 HCWs completed the survey (response rate: 85.6%); 51.6% were males, 32.1% were aged 25-34 years, and most were doctors (30.2%) and medical students (29.6%). Regarding COVID-19, most of the participants used social media to obtain information (61%), and a significant proportion of HCWs had poor knowledge of its transmission (61%) and symptom onset (63.6%) and showed positive perceptions of COVID-19 prevention and control. Factors such as age and profession were associated with inadequate knowledge and poor perception of COVID-19.As the global threat of COVID-19 continues to emerge, it is critical to improve the knowledge and perceptions of HCWs. Educational interventions are urgently needed to reach HCWs beyond borders, and further studies are warranted.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Background. Coronavirus disease 2019 , caused by severe acute respiratory syndrome coronavirus 2 (SARS-CO-V-2), was first reported in Wuhan, Hubei province, China has now rapidly spread over 50 countries. For the prevention and control of infection, Taiwan Centers for Disease Control initiated testing of SARS-CoV-2 on January 24 th 2020 for persons suspected with this disease. Until February 28 th , 43 flu-like symptomatic patients were screened in China Medical University Hospital. Methods. Two patients were confirmed positive for SARS-CoV-2 infection by rRT-PCR as COVID-19 patients A and B. Causative pathogens for included patients were detected using FilmArray TM Respiratory Panel. We retrospectively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients in comparison to those with other respiratory infections. Results. Through contact with Taiwan No. 19 case patient on 27 th January, COVID-19 patients A and B were infected. Both patients had no identified comorbidities and developed mild illness with temporal fever, persistent cough, and lung interstitial infiltrates. Owing to the persistence of positive SARS-CoV-2 in respiratory specimen, the two COVID-19 patients are still in the isolation rooms despite recovery until 10 th of March. The results of FilmArray TM Respiratory Panel revealed 22 of the 41 non-COVID-19 patients were infected by particular pathogens.In general, seasonal respiratory pathogens are more prevalent than SARS-CoV-2 in symptomatic patients in non-COVID-19 endemic area during the flu season. Since all patients shared similar clinical and laboratory findings, expanded surveillance of detailed exposure history for suspected patients and application of rapid detection tools are highly recommended.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-Background With the spread of COVID-19 from Wuhan, Hubei Province to other areas of the country, medical staff in Fever Clinics faced the challenge of identifying suspected cases among febrile patients with acute respiratory infections. We aimed to describe the prevalence and clinical features of COVID-19 as compared to pneumonias of other etiologies in a Fever Clinic in Beijing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract
-This paper examines the role of various socioeconomic factors in mediating the local and cross-city transmissions of the novel coronavirus 2019 in China. We implement a machine learning approach to select instrumental variables that strongly predict virus transmission among the rich exogenous weather characteristics. Our 2SLS estimates show that the stringent quarantine, massive lockdown and other public health measures imposed in late January significantly reduced the transmission rate of COVID-19. By early February, the virus spread had been contained. While many socioeconomic factors mediate the virus spread, a robust government response since late January played a determinant role in the containment of the virus. We also demonstrate that the actual population flow from the outbreak source poses a higher risk to the destination than other factors such as geographic proximity and similarity in economic conditions. The results have rich implications for ongoing global efforts in containment of COVID-19.
-</t>
-  </si>
-  <si>
-    <t>['We found six studies on the characteristics of patients infected with COVID-19.', 'Our search did not reveal any report on the characteristics of patients with COVID-19 infection in other imported city except Wuhan.', 'Added value of this study\n\nWe reported the characteristics of 262 cases infected with COVID-19 from 57 hospitals across Beijing and provided the proportion of the COVID-19 infection on the severe cases to mild, asymptomatic and non-pneumonia cases.', 'We compared the epidemic features between COVID-19 and 2003 SARS for learn lessons and control the outbreak.', 'Implications of all the available evidence\n\nThe COVID-19 infection was generally susceptible, and with a relatively low fatality rate.', 'The measures to prevent transmission was very successful at early stage, the next steps on the COVID-19 infection should be focused on early isolation of patients and quarantine for close contacts in families and communities in Beijing and China.', 'Introduction\n\nAs of February 10, 2020, a total of 40,554 cases with laboratoryconfirmed COVID-19 infection have been detected in the world reported by the World Health Organization (WHO).', '1 There have been 42,638 accumulated confirmed cases of COVID-19 infections, of them 1016 patients has died, 3996 have been discharged and 88% remain in hospital in mainland of China, 2 and 342 confirmed cases were found in Beijing.', '[4] [5] Given that the current COVID-19 outbreak is moving rapidly, the recently published literatures on the epidemic features of COVID-19 mainly focus on Wuhan, China, 6-7 but the information on the imported city or region is exceedingly rare.In this study, we provide an analysis of data on the characteristics of patients with confirmed COVID-19 infection throughout Beijing as an imported metropolis, and unravel the proportion on the severe cases to the mild, asymptomatic and non-pneumonia cases.', 'For learn lessons and control the outbreak, we compare the epidemic features between COVID-19 and 2003 SARS.', 'Study design\n\nThis was a retrospective study, we enrolled patients with COVID-19 infection who was transferred from the hospitals of Beijing to the designated hospitals for special treatment infectious diseases by Beijing Emergency Medical Service (EMS) from Jan 20 to Feb 10, 2020.', 'The features were compared between COVID-19 and 2003 SARS.', 'Definitions\n\nA confirmed case was defined as a suspected case with the laboratory test for the COVID-19 from the respiratory specimens show positive result by the real-time reverse-transcription-polymerasechain-reaction (RT-PCR) assay, while a suspected case was defined as a case that fulfilled both the following criteria: have fever, radiographic evidence of pneumonia, low or normal white-cell count or low lymphocyte count in clinic; and have a travel to Wuhan or direct contact with patients from Wuhan who have fever or respiratory symptoms within 14 days before illness in the epidemic history according to the new coronavirus pneumonial prevention and control program, and the new coronavirus pneumonial diagnosis and treatment program which were published by the National Health Commission of China.', 'Data collection\n\nWe modified the medical record form for the COVID-19 infection, which including demographic, epidemiological, clinical, laboratory test for the COVID-19, diagnostic classification, cluster case and outcome etc.', 'Laboratory confirmation of COVID-19 was detected in the first admission hospital and verified by the Beijing Center for Disease Control and Prevention (CDC).', 'All data were checked by another two researchers.Data \n\nStatical analysis\n\nThe continuous variables were expressed as mean ±SD, and were compared with the Mann-Whitney U test.', 'And the categorical variables were presented as percentage and analyzed by Wilcoxon test between severe and common cases.', 'Results\n\n262 patients who were identified as a confirmed COVID-19 infection were included in this study, those patients were transferred from 57 hospitals across Beijing to the designated hospitals by Beijing EMS from January 20 to February 10, 2020.', 'The fatality of COVID-19 infection was significantly lower in Beijing compared with the whole national (0.9% vs 2.4%, P &lt; 0.001), while the rate of discharged in Beijing was significantly higher than the whole national (14% vs 9.4%, P &lt; 0.001).', 'Beijing was the fourth most affected city or province in China for accumulative confirmed cases of the COVID-19 infection at the end of Jan 23, reduced to the 8th in Jan 25, to the 10th in Jan 27, and out of the top ten later.', 'From May 1st, the new confirmed case of SARS started to decline, but the COVID-19 confirmed cases was still moving in the mainland of China until Feb 10, 2020.', "12 Recently, the COVID-19 infection occurred and spread in the mainland of China, but the proportion of mild and asymptomatic cases versus severe and fatal cases for COVID-19 infection is currently still unknown that hampers realistic assessment of the virus's epidemic potential and complicates the outbreak response, 5 furthermore, the recent publications on the epidemiological and clinical characteristics mainly came from Wuhan, 6 , 7 , 13 the information about the imported city is exceedingly rare.", 'On the basis of this study, firstly we provided the proportion of severe versus common cases of the COVID-19 infection, which was approximately 1:4, the ratio of severe to mild, non-pneumonia and asymptomatic cases were 18%, 73%, 4% and 5% respectively, the changes and prognosis of those four categories should be future observed in hospitals.', '[15] [16] Therefore, to identify and control the non-pneumonia and asymptomatic cases are the important measures to prevent transmission on the COVID-19.', 'But 89.1% of the residents of Beijing had been travel to Wuhan or contacted with the confirmed case in 14 days especially in the early stage of COVID-19 infection, after Feb. 1, the number of local confirmed cases began to exceed imported cases.', 'In this study, 133 patients from more than 20 families were infected, same as Wuhan, the infection of COVID-19 in Beijing was of clustering onset too.', 'The fatality of patients infected by COVID-19 in Beijing was 0.9%, significantly lower than the whole national average level, and not resembling that in previous studies.', 'Among the top 10 provinces and cities with accumulative confirmed cases of COVID-19 cases, the ranking of Beijing has fallen faster than other provinces.', 'Therefore, Beijing was successful in preventing and controlling on the COVID-19 infection, it benefits from the correct leadership and experience of SARS in 2003.', 'From the perspective of death of SARS, as of May 11, 2003 , the fatality of the SARS was 5.0%, while the COVID-19 was 2.4% in the whole national, there was no significant with the fatality between SARS and the COVID-19 infection in the early stage, but different in the later, the fatality rate of SARS was up to 10% at last.', 'First, only the COVID-19 confirmed cases transferred by EMS in Beijing were included, the first admission to the designated hospitals cases were not enrolled, nor other provinces or cities which dominated by imported.', 'Last, the official data of 2003 SARS is a month later than the outbreak, its epidemic development curve is not precise.', 'However, this study represents characteristics of early stage of COVID-19 in Beijing, which has certain value for future control and research.In conclusion, the characteristics of patients infected with COVID-19 in Beijing were obviously different from Wuhan with a lower fatality and higher discharge rate, new infected patients has shifted from the imported to local gradually.', 'The next step in preventing and controlling the COVID-19 infection should be focused on the early isolation of patients and quarantine for close contacts in families and communities.']</t>
-  </si>
-  <si>
-    <t>['The disease was named COVID-19 by the World Health Organization (WHO) [2] .To date, most SARS-CoV-2 infected patients have developed mild symptoms such as dry cough, sore throat, and fever.', 'WHO global health emergency\n\nOn 30th January 2020, the WHO declared the Chinese outbreak of COVID-19 to be a Public Health Emergency of International Concern posing a high risk to countries with vulnerable health systems.', 'The emergency committee have stated that the spread of COVID-19 may be interrupted by early detection, isolation, prompt treatment, and the implementation of a robust system to trace contacts [5] .', 'In light of this, various bodies have committed to making articles pertaining to COVID-19 immediately available via open access to support a unified global response [6] .https://doi.org/10.1016/j.ijsu.2020.02.034 Received 3 February 2020; Received in revised form 17 February 2020; Accepted 24 February 2020\n\nGlobal response\n\nEfforts aimed at deciphering the pathophysiology of COVID-19 have led to the EU mobilising a €10,000,000 research fund to "contribute to more efficient clinical management of patients infected with the virus, as well as public health preparedness and response" [7] .', "Regarding diagnostic testing, US-based companies such as Co-Diagnostics and the Novacyt's molecular diagnostics division Primerdesign have launched COVID-2019 testing kits for use in the research setting [8, 9] .", 'The United Kingdom (UK) government have also invested £20,000,000 to help develop a COVID-19 vaccine [10] .', 'Strikers are demanding that the border to mainland China be closed completely to prevent further COVID-19 transmission.', 'Confirmed UK cases and British response\n\nAs of 4th March 2020, a total of 16,659 tests for COVID-19 have been conducted across the UK.', 'To date, 85 individuals have tested positive resulting in the UK public health risk for viral infection being raised from low to moderate [14] .', 'Any detected cases of COVID-19 should be transferred to an Airborne High Consequence Infectious Diseases (HCID) centre, including the two principal centres in England (the Royal Free Hospital in London and the Newcastle Royal Victoria Infirmary).The DoH and UK Chief Medical Officers have also advised individuals having visited Wuhan and the Hubei Province in the last 14 days to remain indoors and to call NHS 111.', 'Viral transmission and spread\n\nThere are currently few studies that define the pathophysiological characteristics of COVID-19, and there is great uncertainty regarding its mechanism of spread.', 'However, there is an increasing body of evidence to suggest that human-to-human transmission may be occurring during the asymptomatic incubation period of COVID-19, which has been estimated to be between 2 and 10 days [20] [21] [22] .As of 3rd March 2020, 90,870 cases of COVID-19 have been confirmed, 80,304 of which are confined to China.', 'Prevention\n\nVarious bodies including the WHO and US Centers for Disease Control and Prevention (CDC) have issued advice on preventing further spread of COVID-19 [20, 24] .', 'They recommend avoiding travel to highrisk areas, contact with individuals who are symptomatic, and the consumption of meat from regions with known COVID-19 outbreak.', 'Diagnosis\n\nClinical features of COVID-19 include dry cough, fever, diarrhoea, vomiting, and myalgia.', 'The WHO and CDC have both issued guidance on key clinical and epidemiological findings suggestive of a COVID-19 infection (Table 1 ) [27] .', 'Extensive laboratory tests should be requested for patients with suspected infection.', 'Patients may present with an elevated C-reactive protein, erythrocyte sedimentation rate, lactate dehydrogenase, creatinine, and a prolonged prothrombin time [4] .Full genome sequencing and phylogenetic analysis on fluid from bronchoalveolar lavage can confirm COVID-2019 infection [29] .', 'Treatment\n\nAt present, no effective antiviral treatment or vaccine is available for COVID-19.', 'However, a randomized multicentre controlled clinical trial is currently underway to assess the efficacy and safety of abidole in patients with COVID-19 (ChiCTR2000029573).', 'This advice is based on prior research showing that these medications lower mortality rates in patients infected with Severe Acute Respiratory Syndrome (SARS) [36] .', 'Oseltamivir, a neurominidase inhibitor, is currently being used by medical staff in China for suspected infections despite the lack of any conclusive evidence regarding its effectiveness on COVID-19.', 'The current reported mortality for COVID-19 is approximately 3.4% compared with 9.6% for SARS [37] and 34.4% for Middle East respiratory syndrome (MERS) [38] .', 'The clinical features of COVID-19 versus its distance relative SARS are summarised in Table 2 .', 'To date, COVID-19 has been shown to have a mean incubation period of 5.2 days and a median duration from the onset of symptoms to death of 14 days [22, 39] , which is comparable to that of MERS [40] .', 'COVID-19 pathophysiology\n\nCOVID-19 is caused by SARS-CoV-2, a betacoronavirus.', 'The wider consequences of COVID-19\n\nChina is integral to nearly every sector of the global economy.', 'The recent outbreak of the COVID-19 has already challenged an economy strained by trade wars with the US; national growth hit a 30year low in 2019 [58] .', 'The key difference between COVID-19 and SARS however is the complexity of supply chains that China is now enmeshed in.', 'Lessons learned from the COVID-19 outbreak\n\nThe international response to COVID-19 has been more transparent and efficient when compared to the SARS outbreak.', 'However, several learning points should be taken away from COVID-19 in the event of future outbreaks (Table 3) .', 'Conclusion\n\nThe recent COVID-19 outbreak has been deemed a global health emergency.', 'It is perhaps clear that quarantine alone may not be sufficient to prevent the spread of COVID-19, and the global impact of this viral infection is one of heightening concern.', 'Further research is undoubtedly required to help define the exact mechanism of human-to-human and animal-to-human transmission to facilitate the development of a virus-specific vaccine.', 'Evidently, the pandemic potential of COVID-19 demands rigorous surveillance and on-going monitoring to accurately track and potentially predict its future host adaptation, evolution, transmissibility, and pathogenicity.', 'However, the rapidly evolving nature of the COVID-2019 epidemic, ever changing statistics, and constant unravelling of new research findings represents a major limitation to the present review.']</t>
-  </si>
-  <si>
-    <t>['\n\nSarbecovirus strains, the hypothesis that COVID-19 originated from bats is deemed very 56 likely [12, 34, 36, 39, [42] [43] [44] [45] .', 'In this study, we use MLDSP [51] and MLDSP-GUI [52] with CGR as a 82 numerical representation of DNA sequences to assess the classification of COVID-19 83 from the perspective of machine learning-based alignment-free whole genome 84 comparison of genomic signatures.', 'Using MLDSP and MLDSP-GUI, we confirm that 85 the COVID-19 belongs to the Betacoronavirus, while its genomic similarity to the 86 sub-genus Sarbecovirus supports a possible bat origin.', 'Our method 89 delivers accurate classifications of COVID-19 without a priori biological knowledge, by 90 a simultaneous processing of the geometric space of all relevant viral genomes.', 'The 91 main contributions are: 92 • Identifying intrinsic viral genomic signatures, and utilizing them for a real-time 93 and highly accurate machine learning-based classification of novel pathogen 94 sequences, such as COVID-19;\n\n95\n\n• A general-purpose bare-bones approach, which uses raw DNA sequences alone and 96 does not have any requirements for gene or genome annotation;\n\n97\n\n• The use of a "decision tree" approach to supervised machine learning (paralleling 98 taxonomic ranks), for successive refinements of taxonomic classification.', 'All six classification models trained on 171 3273 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', 'All six classification models trained on 184 2779 sequences were used to classify (predict the label of) the 29 COVID-19 sequences.', '185 All of our machine learning-based models predicted the label as Coronaviridae for all 29 186 sequences ( All classifiers trained on Test-1, Test-2, Test-3a, and Test-3b datasets were used to predict the labels of 29 COVID-19 viral sequences.', 'All classifiers predicted the correct labels for all of the sequences (Riboviria when trained using Test-1, Coronaviridae when trained using Test-2, and Betacoronavirus when trained using Test-3a and Test-3b).February 20, 2020 6/26 .', 'The third test (Test-3a) is designed to classify the COVID-19 sequences at the genus 190 level.', '192\n\nMLDSP-GUI with CGR at k = 7 as the numerical representation was used for the 193 classification of the dataset in Test-3a.', 'All six classification models trained on 208 sequences were used to 196 classify (predict the label of) the 29 COVID-19 sequences.', 'To verify that the correct prediction is not an artifact of possible bias because of 199 larger Betacoronavirus cluster, we did a secondary Test-3b with cluster size limited to 200 the size of smallest cluster (after removing the Gammacoronavirus because it just had 9 201 sequences).', 'The maximum classification accuracy of 100% is obtained using the Linear 202 Discriminant model for Test-3b.', 'All six classification models trained on 60 sequences 203 were used to classify the 29 COVID-19 sequences.', 'In the MoDMap3D plot from Test-5, 220 COVID-19 sequences are placed in a single distinct cluster, see Figure 2 (b).', 'https://doi.org/10.1101/2020.02.03.932350 doi: bioRxiv preprint Betacoronavirus at k = 7 (Table 4) , which is consistent with the ML-DSP results in 250 Test-3 ( Table 2 ).', 'The COVID-19 was then compared to all sub-genera within the 251 Betacoronavirus genus: Embecovirus, Merbecovirus, Nobecovirs and Sarbecovirus seen in 252 Figure 6 .', "The Spearman's rank test was again consistent with the ML-DSP results seen 253 in Table 3 , as the k-mer frequencies at k = 7 showed the highest correlation to the 254 sub-genus Sarbecovirus ( for the correlation test.", 'The strongest correlation value was found between Betacoronavirus and Sarbecovirus when using the data sets from Test 3a from Table 2  and Test 4 from Table 3 highlighting the need for continued intervention [34, [61] [62] [63] .', 'Still, the early COVID-19 262 genomes that have been sequenced and uploaded are over 99% similar, suggesting these 263 infections result from a recent cross-species event [12, 31, 41] .', '264\n\nThese prior analyses relied upon alignment-based methods to identify relationships 265 between COVID-19 and other coronaviruses with nucleotide and amino acid sequence 266 similarities.', 'When analyzing the conserved replicase domains of ORF1ab for 267 coronavirus species classification, nearly 94% of amino acid residues were identical to 268 SARS-CoV, yet overall genome similarity was only around 70%, confirming that 269 COVID-19 was genetically different [63] .', 'Within the RdRp region, it was found that 270 another bat coronavirus, RaTG13, was the closest relative to COVID-19 and formed a 271 distinct lineage from other bat SARS-like coronaviruses [39, 41] .', 'Other groups found 272 that two bat SARS-like coronaviruses, bat-SL-CoVZC45 and bat-SL-CoVZXC21, were 273 also closely related to COVID-19 [12, [34] [35] [36] [37] [38] .', 'There is a consensus that these three bat 274 viruses are most similar to COVID-19, however, whether or not COVID-19 arose from a 275 recombination event is still unknown [39] [40] [41] .', '276 Regardless of the stance on recombination, current consensus holds that the 277 hypothesis of COVID-19 originating from bats is highly likely.', 'Whether or not COVID-19 was transmitted directly from 286 bats, or from intermediary hosts, is still unknown, and will require identification of 287 COVID-19 in species other than humans, notably from the wet market and surrounding 288 area it is thought to have originated from [30] .', 'China CDC released information about environmental sampling in 294 the market and indicated that 33 of 585 samples had evidence of COVID-19, with 31 of 295 these positive samples taken from the location where wildlife booths were concentrated, 296 suggesting possible wildlife origin [79, 80] .', '301 Viral outbreaks like COVID-19 demand timely analysis of genomic sequences to machine learning-based alignment-free method successfully used in the past for sequence 315 comparisons and analyses [51] .', 'In this study we confirm the taxonomy 317 of COVID-19 and, more generally, propose a method to efficiently analyze and classify a 318 novel unclassified DNA sequence against the background of a large dataset.', 'We namely 319 use a "decision tree" approach (paralleling taxonomic ranks), and start with the highest 320 taxonomic level, train the classification models on the available complete genomes, test 321 the novel unknown sequences to predict the label among the labels of the training 322 dataset, move to the next taxonomic level, and repeat the whole process down to the 323 lowest taxonomic label.', '324\n\nTest-1 starts at the highest available level and classifies the viral sequences to the 11 325 families and Riboviria realm (Table 1) .', 'The objective is to train the classification models with the 329 known viral genomes and then predict the labels of the COVID-19 virus sequences.', 'This test demonstrates that MLDSP-GUI can distinguish between different viral 332 families.', 'The trained models are then used to predict the labels of 29 COVID-19 333 sequences.', 'As expected, all classification models correctly predict that the COVID-19 334 sequences belong to the Riboviria realm, see Table 2 .', 'Test-2 is composed of 12 families 335 from the Riboviria, see Table 1 , and the goal is to test if MLDSP-GUI is sensitive 336 enough to classify the sequences at the next lower taxonomic level.', 'When COVID-19 sequences are tested using the models trained on Test-2, all of 342 the models correctly predict the COVID-19 sequences as Coronaviridae (Table 2) .', 'All trained classification models correctly predict the COVID-19 as 349 Betacoronavirus, see Table 2 .', 'Test-3a has Betacoronavirus as the largest cluster and it 350 can be argued that the higher accuracy could be a result of this bias.', 'To avoid bias, we 351 did an additional test removing the smallest cluster Gammacoronavirus and limiting the 352 size of remaining three clusters to the size of the cluster with the minimum number of 353 sequences i.e.', '20 with Test-3b.', 'MLDSP-GUI obtains 100% classification accuracy for 354 this additional test and still predicts all of the COVID-19 sequences as Betacoronavirus.', '355 These tests confirm that the COVID-19 are from the genus Betacoronavirus.', 'This suggests substantial similarity between COVID-19 and 364 the Sarbecovirus sequences.', 'Test-5 and Test-6 (see Table 3 ) are designed to verify that 365 COVID-19 sequences can be differentiated from the known species in the 366 Betacoronavirus genus.', 'MLDSP-GUI achieved a maximum classification score of 98.7% 367 for Test-5 and 100% for Test-6 using Subspace Discriminant classification model.', 'This 368 shows that although COVID-19 and Sarbecovirus are closer on the basis of genomic 369 similarity (Test-4), they are still distinguishable from known species.', 'Therefore, these 370 results suggest that COVID-19 may represent a genetically distinct species of 371 Sarbecovirus.', 'All COVID-19 virues are visually seen in MoDMap3D generated from 372 Test-5 (see Figure 2 (b)) as a closely packed cluster and it supports a fact that there is 373 99% similarity among these sequences [12, 31] .', 'The MoDMap3D generated from the 374 Test-5 (Figure 2(b) ) visually suggests and the average distances from COVID-19 375 sequences to all other sequences confirm that the COVID-19 sequences are most 376 proximal to the RaTG13 (distance: 0.0203), followed by the bat-SL-CoVZC45 (0.0418), 377 and bat-SL-CoVZX21 (0.0428).', 'To confirm this proximity, a UPGMA phylogenetic tree 378 is computed from the PCC-based pairwise distance matrix of sequences in Test-6, see 379 Figure 3 .', 'The phylogenetic tree placed the RaTG13 sequence closest to the COVID-19 380 sequences, followed by the bat-SL-CoVZC45 and bat-SL-CoVZX21 sequences.', '383 We further confirm our results regarding the closeness of COVID dinucleotides in their genomes, otherwise known as CG suppression [81, 82] .', "The 432 Spearman's rank correlation data and the patterns observed in the CGR images from 433 Figure 4 , of the coronavirus genomes, including COVID-19 identify patterns such as CG 434 underepresentation, also present in vertebrate and, importantly, bat host genomes.", 'Due to the high amino acid similarities between 438 COVID-19 and SARS-CoV main protease essential for viral replication and processing, 439 anticoronaviral drugs targeting this protein and other potential drugs have been 440 identified using virtual docking to the protease for treatment of 441 COVID-19 [29, 44, 45, [91] [92] [93] [94] .', 'The human ACE2 receptor has also been identified as the 442 potential receptor for COVID-19 and represents a potential target for treatment [42, 43] .', '443 MLDSP-GUI is an ultra-fast, alignment-free method as is evidenced by the 444 time-performance of MLDSP-GUI for Test-1 to Test-6 given in Figure 7 .', 'All of the tests combined (Test-1 to Test-6) are doable in This study provides an alignment-free method based on intrinsic genomic signatures 456 that can deliver highly-accurate real-time taxonomic predictions of yet unclassified new 457 sequences, ab initio, using raw DNA sequence data alone and without the need for gene 458 or genome annotation.']</t>
-  </si>
-  <si>
-    <t>['Early reports predicted the onset of a potential Coronavirus outbreak given the estimate of a reproduction number for the 2019 Novel (New) Coronavirus (COVID-19, named by WHO on Feb 11, 2020) which was deemed to be significantly larger than 1 (ranges from 2.24 to 3.58) [3] .The chronology of COVID-19 infections is as follows.', 'By January 2, 2020, 41 admitted hospital patients had been identified as having laboratory-confirmed COVID-19 infection, less than half of these patients had underlying diseases, including diabetes, hypertension, and cardiovascular disease [6] .', 'It was concluded that the COVID-19 is not a super-hot spreading virus (spread by one patient to many others), but rather likely spread due to many patients getting infected at various locations throughout the hospital through unknown mechanisms.', 'In addition, only patients that got clinically sick were tested, thus there were likely many more patients that were presumably infected.', 'As of January 22, 2020, a total of 571 cases of the 2019-new coronavirus (COVID-19) were reported in 25 provinces (districts and cities) in China [7] .', 'On January 25, 2020, a total of 1975 cases were confirmed to be infected with the COVID-19 in mainland China with a total of 56 deaths [8] .', 'The first case of COVID-19 infection confirmed in the United States led to the https://doi.org/10.1016/j.jaut.2020.102433 Received 10 February 2020; Received in revised form 17 February 2020; Accepted 18 February 2020 description, identification, diagnosis, clinical course, and management of this case.', 'Further, the first case of human-to-human transmission of COVID-19 was reported in the US on January 30, 2020 (https://www.cdc.gov/media/ releases/2020/p0130).', 'Following such initial screening, 443 individuals have been tested for coronavirus infection in 41 states in the USA.', 'Only 15 (3.1%) were tested positive, 347 were negative and results on the remaining 81 are pending (https:// www.cdc.gov/coronavirus/2019-ncov).', 'Symptoms\n\nThe symptoms of COVID-19 infection appear after an incubation period of approximately 5.2 days [12] .', 'The period from the onset of COVID-19 symptoms to death ranged from 6 to 41 days with a median of 14 days [8] .', 'The most common symptoms at onset of COVID-19 illness are fever, cough, and fatigue, while other symptoms include sputum production, headache, haemoptysis, diarrhoea, dyspnoea, and lymphopenia [5, 6, 8, 13] .', '2) .It is important to note that there are similarities in the symptoms between COVID-19 and earlier betacoronavirus such as fever, dry cough, dyspnea, and bilateral ground-glass opacities on chest CT scans [6] .', 'However, COVID-19 showed some unique clinical features that include the targeting of the lower airway as evident by upper respiratory tract symptoms like rhinorrhoea, sneezing, and sore throat [15, 16] .', 'Importantly, whereas patients infected with COVID-19 developed gastrointestinal symptoms like diarrhoea, a low percentage of MERS-CoV or SARS-CoV patients experienced similar GI distress.', 'Therefore, it is important to test faecal and urine samples to exclude a potential alternative route of transmission, specifically through health care workers, patients etc ( Fig.', 'Therefore, development of methods to identify the various modes of transmission such as feacal and urine samples are urgently warranted in order to develop strategies to inhibit and/or minimize transmission and to develop therapeutics to control the disease.', 'Pathogenesis\n\nThe severe symptoms of COVID-19 are associated with an increasing numbers and rate of fatalities specially in the epidemic region of China.', 'The percentage of death among the reported 2684 cases of COVID-19 was approximately 2.84% as of Jan 25, 2020 and the median age of the deaths was 75 (range 48-89) years [8] .Patients infected with COVID-19 showed higher leukocyte numbers, abnormal respiratory findings, and increased levels of plasma pro-inflammatory cytokines.', 'One of the COVID-19 case reports showed a patient at 5 days of fever presented with a cough, coarse breathing sounds of both lungs, and a body temperature of 39.0°C.', "The patient's sputum showed positive real-time polymerase chain reaction results that confirmed COVID-19 infection [14] .", 'The main pathogenesis of COVID-19 infection as a respiratory system targeting virus was severe pneumonia, RNAaemia, combined with the incidence of ground-glass opacities, and acute cardiac injury [6] .', 'Significantly high blood levels of cytokines and chemokines were noted in patients with COVID-19 infection that included IL1-β, IL1RA, IL7, IL8, IL9, IL10, basic FGF2, GCSF, GMCSF, IFNγ, IP10, MCP1, MIP1α, MIP1β, PDGFB, TNFα, and VEGFA.', 'Transmission\n\nBased on the large number of infected people that were exposed to the wet animal market in Wuhan City where live animals are routinely sold, it is suggested that this is the likely zoonotic origin of the COVID- 19 .', 'Initial reports identified two species of snakes that could be a possible reservoir of the COVID-19.', 'Genomic sequence analysis of COVID-19 showed 88% identity with two bat-derived severe acute respiratory syndrome (SARS)-like coronaviruses [19, 20] , indicating that mammals are the most likely link between COVID-19 and humans.', 'Several reports have suggested that person-to-person transmission is a likely route for spreading COVID-19 infection.', 'Importantly, the sequence of the receptor-binding domain of COVID-19 spikes is similar to that of SARS-CoV.', 'Phylogenetic analysis\n\nWorld Health Organisation (WHO) has classified COVID-19 as a β CoV of group 2B [23] .', 'Ten genome sequences of COVID-19 obtained from a total of nine patients exhibited 99.98% sequence identity [19] .', 'The genetic sequence of the COVID-19 showed more than 80% identity to SARS-CoV and 50% to the MERS-CoV [5, 19] , and both SARS-CoV and MERS-CoV originate in bats [24] .', 'Thus, the evidence from the phylogenetic analysis indicates that the COVID-19 belongs to the genus betacoronavirus, which includes SARS-CoV, that infects humans, bats, and wild animals [25] .COVID-19 represents the seventh member of the coronavirus family that infects humans and has been classified under the orthocoronavirinae subfamily.', 'The COVID-19 forms a clade within the subgenus sarbecovirus [25] .', 'Based on the genetic sequence identity and the phylogenetic reports, COVID-19 is sufficiently different from SARS-CoV and it can thus be considered as a new betacoronavirus that infects humans.', 'The COVID-19 most likely developed from bat origin coronaviruses.', 'Another piece of evidence that supports the COVID-19 is of bat origin is the existence of a high degree of homology of the ACE2 receptor from a diversity of animal species, thus implicating these animal species as possible intermediate hosts or animal models for COVID-19 infections [20] .', 'Therapeutics/treatment options\n\nThe person-to-person transmission of COVID-19 infection led to the isolation of patients that were administered a variety of treatments.', 'At present, there are no specific antiviral drugs or vaccine against COVID-19 infection for potential therapy of humans.', 'Thus, these therapeutic agents can be considered to treat COVID-19 infection [27] .', 'Furthermore, there are a number of other compounds that are in development.', 'These include the clinical candidate EIDD-2801 compound that has shown high therapeutic potential aganist seasonal and pandemic influenza virus infections and this represents another potential drug to be considered for the treatment of COVID-19 infection [28] .', 'Along those lines, until more specific therapeutics become available, it is reasonable to consider more broad-spectrum antivirals that provide drug treatment options for COVID-19 infection include Lopinavir/Ritonavir, Neuraminidase inhibitors, peptide (EK1), RNA synthesis inhibitors.', 'It is clear however, that more research is urgently needed to identify novel chemotherapeutic drugs for treating COVID-19 infections.', 'In order to develop pre-and post-exposure prophylaxis against COVID-19, there is an urgent need to establish an animal model to replicate the severe disease currently observed in humans.', 'Several groups of scientists are currently working hard to develop a nonhuman primate model to study COVID-19 infection to establish fast track novel therapeutics and for the testing of potential vaccines in addition to providing a better understanding of virus-host interactions.7.', 'Future directions to control the spread of the disease Extensive measures to reduce person-to-person transmission of COVID-19 are required to control the current outbreak.', 'The early death cases of COVID-19 outbreak occurred primarily in elderly people, possibly due to a weak immune system that permits faster progression of viral infection [8, 12] .', 'Epidemiological changes in COVID-19 infection should be monitored taking into account potential routes of transmission and subclinical infections, in addition to the adaptation, evolution, and virus spread among humans and possible intermediate animals and reservoirs.', 'These include, but are not limited to, details about who and how many have been tested, what proportion of these turned positive and whether this rate remains constant or variable.', 'Very few paediatric cases have so far been reported; is this due to lack of testing or a true lack of infection/susceptibility?', 'Of the ones that have so far been tested, how many have developed severe disease and how many were tested positive but showed no clinical sign of disease?']</t>
-  </si>
-  <si>
-    <t>['Introduction\n\nThe type of pneumonia caused by the 2019 novel coronavirus disease (COVID-19) is a highly infectious disease, and the ongoing outbreak has been declared by WHO as a global public health emergency.', '1,2 COVID-19 pneumonia was first reported in Wuhan, Hubei Province, China, in December, 2019, followed by an outbreak across Hubei Province and other parts of the country.', '1 \n\n,2 A study in\n\nThe Lancet by Huang and colleagues 2 reported the epidemiological, clinical, laboratory, and radiological characteristics, as well as treatment and clinical out comes, of patients with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics and vertical transmission potential of COVID-19 pneumonia in pregnant women is unknown.', 'Urgent questions that need to be addressed promptly include whether pregnant women with COVID-19 pneumonia will develop distinct symptoms from non-pregnant adults, whether pregnant women who have confirmed COVID-19 pneumonia are more likely to die of the infection or to undergo preterm labour, and whether COVID-19 could spread vertically and pose risks to the fetus and neonate.', 'Answers to these questions are essential for formulating the principles of obstetric treatment for pregnant women with COVID-19 infection.', 'Therefore, to facilitate efforts, both in China and glo bally, to prevent and control COVID-19 pneumonia in children and pregnant women, 3 we retrospectively collected and analysed detailed clinical data from pregnant women with laboratory-confirmed COVID-19 infection at Zhongnan Hospital of Wuhan University, Wuhan, China.', 'In this study we present clinical features of pregnant women with confirmed COVID-19 pneumonia and examine the vertical trans mission potential of COVID-19.', 'Study design and patients\n\nWe did a retrospective review of medical records from nine pregnant women with COVID-19 pneumonia admitted to Zhongnan Hospital of Wuhan University from Jan 20 to Jan 31, 2020.', 'Diagnosis of COVID-19 pneumonia was based on the New Coronavirus Pneumonia Prevention and Control Program (4th edition) published by the National Health Commission of China.', '4 All nine pregnant women with COVID-19 pneumonia tested positive for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) by use of quantitative RT-PCR (qRT-PCR) on samples from the respiratory tract.This study was reviewed and approved by the Medical Ethical Committee of Zhongnan Hospital of Wuhan University (approval number 2020004).', 'Two study investigators (JG and XY) independently reviewed the data collection forms to verify data accuracy.Maternal throat swab samples were collected and tested for SARS-CoV-2 with the Chinese Center for Disease Control and Prevention (CDC) recommended Kit (BioGerm, Shanghai, China), following WHO guidelines for qRT-PCR.', '5 Amniotic fluid samples from patients with COVID-19 pneumonia were obtained via direct syringe aspiration at the time of delivery.', 'Additionally, breast milk samples from patients with COVID-19 pneumonia were collected after their first lactation.', 'Evidence of vertical transmission was evaluated by testing for the presence of SARS-CoV-2 in these clinical samples.', 'All samples were processed at the State Key Laboratory of Virology/Institute of Medical Virology, School of Basic Medical Sciences, Wuhan University, for further testing.', 'Sample collection, pro cessing, and laboratory testing complied with WHO guidance.', '6 All samples, as described above, were tested for SARS-CoV-2 by use of qRT-PCR with the CDC recommended Kit.', 'The test results were confirmed by nested RT-PCR with designed primers.', 'We found two articles: one titled \n\nAdded value of this study\n\nWe retrospectively reviewed clinical records, laboratory findings, and chest CT scans for nine pregnant women with laboratoryconfirmed COVID-19 pneumonia.', 'Evidence of vertical transmission was assessed by testing for the presence of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in amniotic fluid, cord blood, breastmilk, and neonatal throat swab samples from six of nine patients.', 'None of the patients developed severe COVID-19 pneumonia or died.', 'Amniotic fluid, cord blood, neonatal throat swab, and breastmilk samples from six of the nine patients were tested for SARS-CoV-2, and all results were negative.', 'Implications of all the available evidence\n\nThe clinical characteristics of COVID-19 pneumonia in pregnant women were similar to those of non-pregnant adult patients with COVID-19 pneumonia.', 'Based on data from this small group of patients, there is currently no evidence of vertical transmission in pregnant women who develop COVID-19 pneumonia in the third trimester.the sequence of Wuhan-Hu-1 (MN908947).', 'All patients had a history of epidemiological exposure to COVID-19.', 'Additionally, one patient showed obvious gastrointestinal symptoms.', 'However, none of the nine patients developed severe pneumonia, requiring mechanical ventilation, or died of COVID-19 pneumonia, as of Feb 4, 2020.', 'Pregnancy complications that appeared after the onset of COVID-19 infection included fetal distress (in two of nine patients) and premature rupture of the membrane (in two of nine; table 1).All patients were given oxygen support (nasal cannula) and empirical antibiotic treatment.', 'Six patients were administered antiviral therapy (table 1) .Data from laboratory tests showed that five of the nine pregnant women with COVID-19 pneumonia had lymphopenia (&lt;1·0 × 10⁹ cells per L).', 'Neonate 1 had a mild increase in myocardial enzymes on the day of birth (myoglobin 170·8 ng/mL and creatine kinase-myocardial band 8·5 ng/mL), but without any clinical symptoms.The presence of SARS-CoV-2 was tested in amniotic fluid, cord blood, neonatal throat swab, and breastmilk samples collected from six patients.', 'Discussion\n\nWe report clinical data from nine pregnant women with laboratory-confirmed COVID-19 pneumonia.', 'The clinical characteristics of these patients with COVID-19 infection during pregnancy were similar to those of non-pregnant adults with COVID-19 infection, as previously reported.', 'Notably, based on our findings in these nine patients, there is currently no evidence to s uggest that development of COVID-19 pneumonia in the third trimester of pregnancy could lead to the occurrence of severe Pregnant women are particularly susceptible to respiratory pathogens and severe pneumonia, because they are at an immunosuppressive state, and physiological adaptive changes during pregnancy (eg, diaphragm elevation, increased oxygen consumption, and oedema of respiratory tract mucosa) can render them intolerant to hypoxia.', 'In the current study, we treated nine pregnant women with COVID-19 pneumonia in 11 days from Jan 20 to Jan 31, 2020.', 'Considering that SARS-CoV-2 has up to 85% sequence similarity with SARS, [11] [12] [13] [14] although none of our patients developed severe pneumonia or died of COVID-19 infection, we should be alert to the possibility that the disease course and prognosis of COVID-19 pneumonia could follow the same trend as SARS in pregnant women.', 'However, our obser vations are based on a small number of cases and the time between illness onset and delivery was short.According to our study, pregnant women with COVID-19 pneumonia showed a similar pattern of clinical characteristics to non-pregnant adult patients, as recently reported.', '2, 15 Common symptoms at the onset of COVID-19 pneumonia for these women included a fever and cough, whereas less common symptoms were myalgia, malaise, sore throat, diarrhoea, and shortness of breath.', 'Laboratory tests indicated that lymphopenia is also likely to occur.', 'Additionally, increased concentrations However, none of these symptoms was present in every patient, nor were the symptoms specific to pregnant women with COVID-19 pneumonia.', "Therefore, we recommend that, in addition to using nucleic acid tests as the gold standard for the diagnosis of COVID-19 pneumonia, relevant clinical examinations are done, including blood counts and chest CT and a comprehensive evaluation of a patient's medical history, epidemiological exposure, and symptoms.", 'However, the causes of premature birth were not related to COVID-19 pneumonia: one patient had severe pre-eclampsia, one had a history of two stillbirths, one had a history of two caesarean sections and irregular contractions; and one had premature rupture of the membrane for about 12 h and suspected intrauterine infection.', 'Furthermore, the time period from onset of COVID-19 pneumonia to admission was only 3 days for this patient; therefore we reasoned that the fetal intrauterine growth restriction was more likely to be a symptom associated with pre-eclampsia.', 'None of the neonates needed special paediatric treatment.The main focus of this study was to investigate the possibility of intrauterine transmission of COVID-19 infection.', 'We chose to test amniotic fluid, cord blood, and neonatal throat swab samples at birth to ascertain the possibility of intrauterine fetal infection.', 'Notably, all the samples tested in our study were collected in the operating room at the time of the caesarean section, thus guaranteeing that the samples were not contaminated and best represented fetal intrauterine conditions.', 'Our results show that SARS-CoV-2 was negative in all of the above samples, suggesting that no intrauterine fetal infections occurred as a result of COVID-19 infection during a late stage of pregnancy.', '10, 16 However, our observation of no fetal infection caused by intrauterine vertical transmission could be affected by our small sample size and the stage of pregnancy at the onset of COVID-19 infection.', '17 We did not collect samples of vaginal mucosa or shedding in birth canals, which prevented us from analysing whether COVID-19 could be transmitted during vaginal delivery.', 'Notably, however, our results showed that breastmilk samples from mothers with COVID-19 infection appeared to be free from SARS-CoV-2.On Feb 6, 2020, a neonate born to a pregnant woman with COVID-19 pneumonia tested positive for SARS-CoV-2 infection 36 h after birth.', '18, 19 Although many important clinical details of this single case were not available at the time of writing this report, there are reasonable concerns that COVID-19 could be contracted in the womb.', 'Reportedly, the pregnant woman had developed fever for 8 h and was suspected to have COVID-19 pneumonia on the basis of her typical chest CT image before admission; an emergency caesarean section was subsequently done, which was followed by confirmation of COVID-19 pneumonia.', 'Additionally, no direct testing of intrauterine tissue samples such as amniotic fluid, cord blood, or placenta was done to confirm that the COVID-19 infection in the neonate was due to intrauterine transmission.', 'Therefore, we cannot conclude whether or not intrauterine COVID-19 infection occurred in this particular case.', 'Nonetheless, this single case of an infected neonate suggests that we should pay special attention to prevent infections in newborn babies born to mothers with COVID-19 pneumonia.This study is limited by the small sample size and retrospective method.', 'The effect of COVID-19 infection on the fetus in the first or second trimester of pregnancy remains to be clarified.', 'Fourth, whether COVID-19 could damage the placenta, which represents an important link in vertical transmission, also needs to be further investigated.', 'Future investigations of these issues and follow-up studies of pregnant women with COVID-19 infection, as well as neonates, will be necessary to ascertain the safety and health of mothers and babies exposed to SARS-CoV-2.In summary, the symptoms of pregnant women with COVID-19 pneumonia were diverse, with the main symptoms being fever and cough.', 'Considering the significance of this ongoing global public health emergency, although our conclusions are limited by the small sample size, we believe that the findings reported here are important for understanding the clinical characteristics and vertical transmission potential of COVID-19 infection in pregnant women.']</t>
-  </si>
-  <si>
-    <t>['\n\nSince the end of 2019, an outbreak of the 2019 novel coronavirus disease (COVID-19) 1 has fast spread widely.', 'By 19 February 2020, over 70 000 laboratory-confirmed COVID-19 have been reported, with over 1800 patients died.', 'At least 12 neonates have been diagnosed with COVID-19.', 'Neonatologists belonging to the Chinese Neonatologist Association of Chinese Doctor Association have proposed measurements for the prevention and control of COVID-19 in neonates.The delivery room or operating room serving suspected or confirmed infected mothers should be specially prepared, preferably with negative pressure.', 'Neonatal resuscitation is performed according to the Neonatal Resuscitation Program seventh edition as usual.Newborns are considered at high risk of COVID-19 in case that they are born to mothers diagnosed with COVID-19, or have close contact with someone with probable or confirmed COVID-19, or live in or travel to the epidemic area.', 'Clinical manifestations of infected neonates, especially preterm infants, might be nonspecific, which might include temperature instability, gastrointestinal and cardiovascular dysfunction, and dominant respiratory problems.', 'All infants with suspected COVID-19 should be isolated and monitored regardless of whether or not they present with symptoms.', 'Diagnosis of neonatal COVID-19 could be confirmed if the suspected patients have positive nucleic acid test for COVID-19 from the respiratory tract, stool or blood specimens.', '4 Infants with highly suspected or confirmed COVID-19 should be referred to the designated neonatal ward.', 'Due to the strong infectivity of COVID-19, negative pressure isolation rooms are recommended.After admission, the following prevention and control strategies should be adequately performed.', 'Avoid breast feeding from COVID-19 mother until recovery.', "Strict hand hygiene and disinfecting environment protocol are required.The patients could be discharged if the following requirements are met: (1) the temperature returned to normal for more than 3 days; (2) respiratory symptoms and chest radiography improved dramatically;(3) nasopharyngeal and pharyngeal swabs, and sputum show negative for COVID-19 for two consecutive times (with at least a 24-hour interval).COVID-19 outbreak might bring psychological stress to the patient's parents and medical staff.", 'Appropriate psychological support is needed.Due to the limited cases and clinical evidence in neonatal COVID-19, the proposal will be continuously modified based on accumulated clinic evidence and experience.']</t>
-  </si>
-  <si>
-    <t>['On 30 January 2020, the World Health Organization (WHO) declared COVID-19 a public health emergency of international concern (PHEIC) [5] .', 'Astonishingly, in the first week of March, a devastating number of new cases were reported globally, and COVID-19 emerged as a pandemic.', 'As of 12 March 2020, more than 125,000 confirmed cases across 118 countries and more than 4600 deaths had been reported [6] .COVID-19 is spread by human-to-human transmission through droplet, feco-oral, and direct contact and has an incubation period of 2-14 days [6] .', 'To date, no antiviral treatment or vaccine has been explicitly recommended for COVID-19.', 'Therefore, applying preventive measures to control COVID-19 infection is the most critical intervention.', 'By the end of January, the WHO and Centers for Disease Control and Prevention (CDC) had published recommendations for the prevention and control of COVID-19 for HCWs [8, 9] .', 'The WHO also initiated several online training sessions and materials on COVID-19 in various languages to strengthen preventive strategies, including raising awareness and training HCWs in preparedness activities [10] .', 'In this regard, the COVID-19 epidemic offers a unique opportunity to investigate the level of knowledge and perceptions of HCWs during this global health crisis.', "In addition, we aim to explore the role of different information sources in shaping HCWs' knowledge and perceptions of COVID-19 during this peak period.", 'Methods\n\nA prospective Web-based cross-sectional study was conducted using a survey instrument to obtain responses from HCWs globally during the first week of March 2020.A 23-item survey instrument was developed using WHO course materials on emerging respiratory viruses, including COVID-19 [14] .', 'The survey covered the domains of HCW characteristics, awareness, information sources, knowledge and perceptions related to COVID-19.', 'The developed draft survey instrument was distributed to ten randomly selected faculty members to assess its readability and validity before pretesting among 20 randomly selected HCWs for clarity, relevance, and acceptability.', 'The 23-item questionnaire was divided into three parts, including participant characteristics (3 items), awareness of COVID-19 (2 items), source of information author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', 'The chi-square test was used to investigate the level of association among variables.', 'Almost all participants agreed that they had heard about COVID-19 (97.8%), but only 44.1% of them had the opportunity to attend lectures/discussions about COVID-19.. CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', "https://doi.org/10.1101/2020.03.09.20033381 doi: medRxiv preprint\n\nSource of information\n\nWhen we asked about the participants' source for reliable information about COVID-19, the primary sources of information about COVID-19 were official government websites and social media ( Figure 1 ).", 'Approximately 30% of the participants reported that they used news media (TV/video, magazines, newspapers, and radio) and social media (Facebook, Twitter, Whatsapp, YouTube, Instagram, Snapchat) to obtain information about COVID-19.Moreover, nearly 40% of the participants sometimes discussed COVID-19-related topics with family and friends.', 'Table 2 shows the knowledge about COVID-19 among HCWs.', 'For instance, approximately two-thirds of doctors and half of allied health workers thought that the origin of COVID-19 was bats (65.7% vs. 55.7%, p&lt;0.05).', 'A high majority of the HCWs (85.6%) agreed that maintaining hand hygiene, covering the nose and mouth while coughing, and avoiding sick patients could help to prevent COVID-19 transmission.', 'A majority of the doctors agreed that COVID-19 could lead to pneumonia, respiratory failure, and death (84%, p&lt;0.05) and that supportive care is the only treatment option that is currently available (83.2%, p&lt;0.05).', "However, the participants' knowledge about questions related to the mode of transmission and incubation period of COVID-19 was poor (p&lt;0.05).", 'Perceptions about COVID-19\n\nOver 78% of the HCWs exhibited a positive perception of COVID-19.', 'A high majority of the HCWs knew that sick patients should share their recent travel history (92.7%), that flu vaccination is not sufficient to prevent COVID-19 (90.7%), and that COVID-19 is not fatal (88.5%).', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint Table 3 ].Items related to COVID-19-related perceptions among HCWs in the study were analyzed separately using the chi-square test to examine their association with age and sex and across different categories of people [ Table 4 ].Nearly 90% of the youngest participants (&lt;25 years) and 92% of the doctors believed that the symptoms of COVID-19 appeared as early as 2 to 14 days; the differences among the respondent groups were statistically significant (p&lt;0.05).', 'Moreover, a significant proportion of the doctors perceived eating well-cooked/handled meat to be safe (83.2%) (p&lt;0.05).Medical students were found to have the perception that flu vaccination is not sufficient to prevent COVID-19 transmission (88%, p&lt;0.05).', 'A large number of allied health workers incorrectly believed that it is not safe to eat well-processed meat during the COVID-19 outbreak (25.3%, p&lt;0.05), that COVID-19 is fatal (21.5%), that there is a delay in symptoms (19.8%), and that flu vaccination is sufficient (19.8%; p&lt;0.05) compared with other participants in the respective groups.', 'In particular, health authorities and scientists have warned that widespread misinformation about COVID-19 is a serious concern causing xenophobia worldwide [4, [16] [17] [18] [19] .', 'In this regard, HCWs should carefully evaluate COVID-19-related information and should use scientific and authentic content as information sources.', 'Discussion\n\nThe findings of this study suggest significant knowledge gaps between the amount of information available about COVID-19 and the depth of knowledge among HCWs, particularly about the mode of transmission and incubation period of COVID-19.Additionally, many allied health workers had inaccurate knowledge that COVID-19 can be treated with antivirals and that there is a vaccine available.', 'This is unfortunate because the surge of COVID-19 is globally devastating, and a large number of resources are provided by healthcare authorities to educate HCWs and improve their knowledge about COVID-19.', 'Greater encouragement from health authorities is needed to assimilate COVID-19-related knowledge among HCWs, including doctors.. CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .', 'https://doi.org/10.1101/2020.03.09.20033381 doi: medRxiv preprint Generally, most participants had a positive perception of the prevention and control of COVID-19.', 'For instance, only half (52%) of the HCWs aged 45-65 years believed that the symptoms of COVID-19 appeared as early as 2 to 14 days (p&lt;0.05), and more than a quarter of the medical students thought that eating meat during the outbreak was unsafe.Approximately 20% of allied health workers believed that the flu vaccine is sufficient for COVID-19 prevention.', 'Limitations\n\nWe used WHO training material for the detection, prevention, response, and control of COVID-19 to develop a validated questionnaire.', 'The developed questionnaire was pilottested, and open-ended questions were limited to reduce information bias.However, this study has some limitations that should be considered.', 'Finally, due to the four-week closure of higher educational institutions in the UAE during the COVID-19 outbreak [16], the institutional review board was not approached.Despite these limitations, our findings provide valuable information about the knowledge and perceptions of HCWs during a peak period of COVID-19.', 'Conclusion\n\nWe identified a significant gap in the source of information, poor knowledge levels, and discrepancies in perceptions of COVID-19 among our study participants.', 'CC-BY-NC-ND 4.0 International license It is made available under a author/funder, who has granted medRxiv a license to display the preprint in perpetuity.is the (which was not peer-reviewed) The copyright holder for this preprint .of COVID-19 continues to emerge, greater efforts through educational campaigns that target HCWs and the wider population beyond borders are urgently needed.', 'WAA designed the questionnaire, conducted the pilot test, and conducted the literature review.']</t>
-  </si>
-  <si>
-    <t>['The outbreak of COVID-19 was first reported in Wuhan, Hubei province, China on December 2019, has now rapidly spread over 50 countries.', 'Fever (88%), cough (67%), and fatigue (34%)were the most common symptoms presented by COVID-19 patients 3 which were similar to those with infections caused by other respiratory viruses, such as Influenza A/B, respiratory syncytial virus, and rhinovirus.', '4, 5 For the prevention and control of COVID-19, Taiwan Centers for Disease Control (CDC) initiated testing of SARS-CoV-2 on January 24 th 2020 for persons who had a travel history to China and presented fever or any respiratory symptoms within 14 days.', 'Until February 28 th , 2105 cases were screened and 34 of them were diagnosed of COVID-19.', 'Through multiplex PCR analysis with FilmArray TM Respiratory Panel, the non-COVID-19 patients were later diagnosed of infections with other respiratory pathogens.', 'Undoubtedly, early screening and diagnosis is crucial for the treatment and control of COVID-19.', 'To establish the diagnostic protocol for this disease, in this report, we comparatively analyzed the clinical presentations, laboratory data, radiologic findings, and travel and exposure contact histories, of the COVID-19 patients with those with other respiratory infections.', 'During January 20 th to February 19 th 2020, a total of 43 patients who were admitted to China Medical University Hospital (CMUH) met the screening criteria of COVID-19 reported by Taiwan CDC.', 'For cases reporting of COVID-19 infection, blood tests were performed after their admission to the negative pressure isolation wards.', 'Results\n\nA total of 43 patients suspected with COVID-19 were admitted to CMUH during January 20 th to February 19 th 2020.', 'Of the 10 patients who had contact history, 4 had close contact with people who visited Guangdong or Hubei province, and 6 had connected to COVID-19 patients.', 'The two COVID-19 patients confirmed in this study had no travel or contact history with people who had been to China but had a family dinner on 27 th January with the patient who was the first COVID-19 mortality case (Taiwan NO.', 'About 44% of the non-COVID19 patients had at least one comorbidity; however, the two confirmed cases, COVID-19 patients A and B, presented no comorbid conditions.', 'Clinical course of COVID-19 patient A and B.', 'The first symptom of COVID-19\n\npatient A was sore throat, which developed on the day (28 th January, illness day 1; Figure   1A ) and had dry cough as the primary manifestation that persisted until illness day 19.During the third sampling on 24 th February, the loads of SARS-CoV-2 in the naso-oropharyngeal specimens from COVID-19 patients A and B were both at an undetectable level.', "However, their sputum was still tested positive for SARS-CoV-2.Patient A's sputum remained positive rRT-PCR on illness day 28, and then turned negative on illness day 35.", 'Clinical features and laboratory data of COVID-19 patients in comparison\n\nwith non-COVID-19 group.', 'The most common symptoms reported by both groups included fever (56%) and nonproductive cough (53%), followed by rhinorrhea (37%), sore throat (21%), productive cough (21%), and dyspnea (9%) ( Table 1) Both the COVID-19 patients had normal white blood cell (WBC) counts without lymphocytopenia and the neutrophil to lymphocyte ratio in the normal range (Table 2) .Of the non-COVID-19 patients, 83% had normal WBC counts and 29% had lymphocytopenia.', 'No statistically significant differences were found between the COVID-19 and non-COVID-19 groups in levels of creatinine, aspartate aminotransferase (AST), alanine aminotransferase (ALT), bilirubin, C-reactive protein (CRP), creatine kinase (CK), and lactate dehydrogenase (LDH) ( Table 2) .', 'Detection of respiratory pathogens for non-COVID-19 patients.', 'FilmArray TM Respiratory Panel, a multiplex PCR assay that comprehensively detects 20 respiratory viruses and bacteria 8 \n\nDiscussion\n\nIn comparison with non-COVID-19 patients, no specific symptoms or laboratory data were noted in the early phase of COVID-19 illness.', 'As demonstrated in this report, the development of mild COVID-19 illness was insidiously initiated and persisted for a long period.', 'The prolonged duration of SARS-CoV-2 detection in naso-oropharyngeal specimens of the COVID-19 patients with mild illness is of concern in epidemic areas.Clinical manifestations of viral respiratory infections range from asymptomatic or flu-like symptoms such as fever, nonproductive or productive cough, myalgia, rhinorrhea, and sore throat, to acute respiratory distress syndrome (ARDS) or multiple organs failure.', '10 COVID-19 is highly contagious.', '5 Although mild illness without lymphocytopenia was developed in both the COVID-19 patients A and B, who had no comorbid conditions, the loads of SARS-CoV-2 persisted for a long duration ( Figure   1B ).', 'Some COVID-19 patients who were considered recovered after symptoms resolved still carried detectable levels of SARS-CoV-2 for 5 to 13 days.', '19 The naso-oropharyngeal specimens, collected from the third sampling of COVID-19 patients A and B, showed negative for SARS-CoV-2.', 'However, their sputum specimens collected on the same day were tested positive.', 'Until 6 th March, the two COVID-19 patients are still in the isolation room, pending for the latest sputum rRT-PCR results.', 'Despite of mild upper and lower respiratory tract symptoms, COVID-19 patient A suffered from diarrhea throughout the illness course.', 'Consistent with the recent study that gastrointestinal symptoms, including diarrhea, vomiting, and abdominal pain, were developed in some COVID-19 patients.', '20 Fecal specimens of these patients were tested positive for SARS-CoV-2.', 'Potential fecal-oral transmission in patients with COVID-19 is of concern.Seasonal viral respiratory pathogens prevalent in Taiwan']</t>
-  </si>
-  <si>
-    <t>['For 2019 novel coronavirus disease (COVID-19), this time, patients with body temperatures≥37.2 o C were asked to firstly visit Fever Clinics, where a triage strategy was implemented 9 , and probable or possible cases were identified by experts or expert panels, and samples were sent for quick viral detection.', 'On Jan. 21, 2020, the first case of COVID-19 was identified in our Fever Clinic, and up to Feb. 15, 21 cases were diagnosed, with 19 cases confirmed by positive 2019-nCoV results, among 88 patients with pneumonia sent for viral detection.', 'As far as we know, the prevalence of COVID-19 in patients with pneumonia visiting Fever Clinics has not been reported, and there is lack of data comparing the clinical features between COVID-19 and pneumonia of other etiologies.Therefore, we collected and reviewed the medical records of patients who visited the Fever Clinic in our hospital.', 'We aimed to estimate the prevalence of COVID-19 in pneumonias during this period and to find the unique features of COVID-19 as compared to pneumonias caused by other agents.', 'We believe that the results of our study will add to the knowledge of COVID-19 for practice in Fever Clinics facing newly emerging respiratory infections.', 'Based on epidemiological history, clinical and radiological manifestations, cases with possible or probably COVID-19 were sent for panel discussion and then for 2019-nCoV detection by RT-PCR.', 'Diagnostic criteria of COVID-19\n\nThe \n\nResults\n\nFrom January 21 to February 15, 2020, based on epidemiological evidence, fever and/or respiratory symptoms, chest radiological findings and blood white blood cell (WBC) results, physicians at the Fever Clinic referred 156 cases to panel discussion by multi-discipline experts.', 'After discussion, 110 were considered to be possible or probable cases of COVID-19, and received 2019-nCoV real-time PCR testing, which was positive in 19 cases (confirmed cases).', 'In another 2 patients, though PCR testing was negative, a clinical diagnosis was made according to epidemiological evidence, consistent clinical and CT findings (clinical cases).', 'These 21 cases were grouped as COVID-19 for this analysis.', 'For the remaining cases with negative viral detection, the diagnosis of COVID-19 was excluded based on inconsistent epidemiological, clinical or radiological data.', 'Among these, 22 were excluded from the analysis because of lack of CT scan or no signs of pneumonia on CT scan, and finally 67 patients with pneumonia of other etiologies were included for analysis as the non-COVID-19 group (see patient selection flowchart in Figure 1 ).In the study period, 2123 patients visited the Fever Clinic because of fever and/or respiratory symptoms, and 342 patients were diagnosed to have pneumonia based on CT scan or in a few cases on Chest X-ray.', 'The prevalence of COVID-19 in all these pneumonia patients was 6.14% (21/342).', 'The prevalence of COVID-19 in cases with CT-confirmed pneumonia sent for 2019-nCoV testing was 23.9% (21/88).The demographics and baseline characteristics of the 21 patients with COVID-19 were shown in Table 1 .', 'https://doi.org/10.1101/2020.02.25.20027763 doi: medRxiv preprint of COVID-19.', 'Seven patients, from 5 family clusters, had close contact with their family members.In the two patients with unclear epidemiological link, one was a social worker contacting a high-flow of people and his wife was confirmed to have COVID-19 by positive 2019-nCoV test about one week later.', 'The other one had no epidemiological history on presentation, but another patient, who had had dinner with him, was also diagnosed to have COVID-19 later.', 'Other symptoms included shortness of breath, myalgia or arthralgia, sore throat, nasal symptoms and diarrhea ( Blood routine showed that decreased lymphocyte count was present in 38.1% of the COVID-19 patients.', 'More than 80% of COVID-19 patients had normal WBC and neutrophil counts.', 'Compared with COVID-19 patients, the total WBC and neutrophil counts were higher in non-COVID-19 patients.', 'Additionally, more non-COVID-19 patients had higher than normal WBC and neutrophil counts.', 'However, lymphocyte counts and the proportions of patients with decreased lymphocytes were not statistically different between the two groups (Table 3 ).In non-COVID-19 patients, infiltrates on the CT scan mainly involved 1-2 lung lobes, while in COVID-19 patients, lesions involving 4-5 lobes were more common.', 'In COVID-19 patients, lung lesions were mostly peripheral or sub-pleural in distribution, and in severe cases were diffusely distributed (Figure 2 ).', 'In non-COVID-19 patients, 34.3% showed airway-dominant lesions, while diffuse distribution was found in only 4.5%.', 'However, centrilobular nodules were observed in non-COVID-19 patients but not in COVID-19 patients (Table 4 ).', 'Discussion\n\nAs of Feb 15, 2020, 57416 cases of confirmed COVID-19 were reported in 31 provinces, autonomous regions and municipalities in China, among which 49030 were in Hubei Province, while in Beijing municipality, 380 confirmed cases were reported.', 'Since the outbreak in early December, 2019, case finding and reporting of COVID-19 were required for medical staff in Fever Clinics around the country.', 'During this study period, in Beijing, as in other regions of the country, influenza and other respiratory infections were also prevalent; it was a challenge for physicians to identify suspected COVID-19 from patients with fever, particularly from pneumonia of varied etiologies.', 'Our results here provide information on the prevalence of COVID-19 in the busy Fever Clinic of a teaching hospital and differential characteristics from non-COVID-19 pneumonias.From January 21, 2019, when the first case of COVID-19 was identified, up to Feb.15, 2020, 2123 patients visited our Fever Clinic because of fever and/or respiratory symptoms, and 342 patients were confirmed to have pneumonia by CT scan or in a few cases by Chest X-ray.', 'The prevalence of COVID-19 in all these pneumonia patients was 6.14% (21/342).', 'https://doi.org/10.1101/2020.02.25.20027763 doi: medRxiv preprint COVID-19 in cases with pneumonia sent for 2019-nCoV testing was 23.9% (21/88).We found that epidemiological history was extremely important for identification of suspected cases of COVID-19 and for differential diagnosis.', 'Over 90% of the COVID-19 patients had clearly identified epidemiological evidence, while in non-COVID-19 patients, epidemiological links could only be found in 32.8%.', 'In the later phase of our study, contact with family members with confirmed COVID-19 was an epidemiological feature and five family clusters were found.', 'A report from Chinese CDC showed that the incidence of COVID-19 outside Hubei Province peaked in Jan 24-27 and most cases (68.6%) had ever exposed to Wuhan or Hubei within 14 days 11 .', 'Consistent to previous reports, the incubation period of our cases was in a range of 2-10 days, with a median of 6.5 days [12] [13] [14] .A unique feature of our study was the comparison between COVID-19 and non-COVID-19 cases visiting the same Fever Clinic at a certain period, with the finding that the total WBC count and the neutrophil count were different between the two groups of patients.', 'In contrast, although decrease of lymphocytes was also common in our study, the difference between COVID-19 and non-COVID-19 cases was not significant, probably due to the fact that pneumonias enrolled for this analysis were mostly viral(for example, influenza) or atypical, as classical bacterial pneumonia had been excluded by first screening/triage.', 'Blood lymphopenia was observed in up to 85% of critically ill patients with COVID-19 16 .', 'Therefore, we speculate that persisting decrease of lymphocytes may be an indicator of severe disease, rather than a criterion for the diagnosis of COVID-19.Unlike pneumonia caused by other pathogens, COVID-19 has some unique characteristics on the CT scan.', 'Firstly, multi-lobe involvement was more common in COVID-19 as compared to non-COVID-19 pneumonia.', 'As a single-center, retrospective study of patients mainly from Haidian District in Beijing, the prevalence of COVID-19 in this Fever Clinic was not representative.', 'Furthermore, the pathogens causing pneumonia in patients without COVID-19 were not identified, therefore we were unable to evaluate the prevalence of other common viral pneumonias of this season, such as influenza pneumonia and All rights reserved.', 'Conclusions\n\nDuring the study period when COVID-19 was epidemic, the prevalence of COVID-19 in patients with pneumonia visiting our Fever Clinic was 6.14%.', 'Most of the COVID-19 cases were mild and moderate in severity and more than 90% had identified epidemiological exposure.Changes of WBC and neutrophil counts showed clinical significance for differential diagnosis of pneumonia caused by 2019-nCoV or other pathogens.', 'CT findings of COVID-19 were characteristic, including the number of affected lobes, lesion patterns and distribution, which may be helpful for clinicians to identify suspected cases of COVID-19 from pneumonia of other etiologies.']</t>
-  </si>
-  <si>
-    <t>['It was later identified to be caused by a new coronavirus (severe acute respiratory syndrome coronavirus 2, or SARS-CoV-2) (Zhu et al., 2020) and the disease is named by the World Health Organization (WHO) as Coronavirus Disease 2019 (COVID-19) 1 .', 'Similar to SARS-CoV and MERS-CoV, the COVID-19 can be transmitted from person to person.', 'Early detection of COVID-19 importation and prevention of onward transmission are crucial to all areas at risk of importation from areas with active transmissions (Gilbert et al., 2020) .', 'Furthermore, many cities require that recent visitors to high COVID-19 risk areas quarantine themselves at home or in designated facilities for 14 days.', 'Governments also trace and isolate contacts of those patients.As multiple nations have implemented mandatary quarantine or even massive lockdown, such as South Korea, Italy and China, and more countries are expected to join as the coronavirus outbreak becomes a global pandemic, examining the influencing factors of the transmission of COVID-19 and the effectiveness of the large-scale quarantine measures in China not only adds to our understanding of the containment of COVID-19 but also provides insights into future prevention work against similar infectious diseases.', 'In this paper, we estimate how the number of confirmed COVID-19 cases in a city is influenced by the number of new COVID-19 cases in the same city, other cities, and Wuhan in the preceding first and second weeks, respectively.', 'We also test whether this policy succeeds in delaying the spread of COVID-19 using a 14-day rolling window analysis between January 19 and February 15.For infectious diseases, the number of infected people usually increases first before reaching a peak and then drops.', 'Combining insights in Adda (2016) and the existing knowledge of the incubation period of COVID-19, we construct instrumental variables for the number of new COVID-19 cases in the preceding two weeks.', "Weather characteristics in the previous third and fourth weeks do not directly affect today's number of new COVID-19 cases after controlling for the number of new COVID-19 cases and weather conditions in the preceding first and second weeks.", 'Furthermore, we examine the moderator effects of socioeconomic factors on the transmission of COVID-19 in China, which include population flow out of Wuhan, the distance between cities, GDP per capita, number of doctors, and contemporaneous weather characteristics.', 'We focus on the effect of population flows from the origin of the COVID-19 outbreak, because data on real time travel between cities have recently become available and we examine whether it can explain the disease spread, and that Wuhan is a major city and a transportation hub with significant population movements.We find that the stringent quarantine and public health measures imposed in late January significantly decreased the transmission rate of COVID-19.', 'Vaccination (Maurer, 2009 , White, 2019 and sunlight exposure (Slusky and Zeckhauser, 2018) are also found effective in reducing the spread of influenza.', 'In the case of COVID-19, the quarantine policy takes effect throughout China within few days in late January.Thus, we directly compare the transmission effects in the pre and post February 1 subsamples to examine its effectiveness in preventing the transmission of COVID-19.', '/2020 been taking more cautious measures from high COVID-19 risk areas.', 'Besides, following the previous literature on the moderator effect of economic development and environmental characteristics on virus transmission, our analysis further reveal that COVID-19 transmission is positively moderated by GDP per capita and negatively moderated by the number of doctors, while the effects of the environmental factors and population density are mixed.Second, our paper complements the epidemiologic studies on the basic reproduction number of COVID-19.', 'Using data on the first 425 COVID-19 patients by January 22, Li et al.', 'Based on time-series data on the number of COVID-19 cases in mainland China from January 10 to January 24, Zhao et al.', 'Given the short time since the beginning of the COVID-19 outbreak, more research in this area is required to assess the dynamics of transmission and its implications on how the COVID-19 outbreak will evolve McGoogan, 2020, Wu et al., 2020b) .', 'Several recent studies have examined the effect of population movement on the spread of COVID-19 (Zhan et al., 2020 .', 'Our paper also adds to the epidemiologic studies on effective ways of containing COVID-19.', 'Using a stochastic transmission model that is parameterized to the COVID-19 outbreak, Hellewell et al.', '(2020) find that highly effective contact tracing and case isolation is enough to control a new outbreak of COVID-19 within three months in most scenarios.', "Our empirical estimation based on real numbers of newly confirmed COVID-19 cases suggests that one new infection case can decrease the number of new cases by 0.097 (0.438) in the following first (second) week in the February 2-15 subsample, corroborating the effectiveness of China's large-scale quarantine policy.", 'The baseline model iswhere c is a city other than Wuhan, y ct is the number of new confirmed cases of COVID-19in city c and date t. τ denotes the preceding first or second week.', 'In addition, a notable feature of the COVID-19 epidemic is that it was originated in one city (Wuhan) and most of the early cases outside Wuhan can be traced to previous contacts with persons in Wuhan.', 'For within city transmissions, we consider the mediating effect of population density, degree of economic development, number of doctors, and environmental factors such as temperature, wind and rain.', 'Variables\n\nJanuary 19, 2020 is the first day that COVID-19 cases were reported outside of Wuhan, so we collect the daily number of new cases of COVID-19 for 303 cities from January 19 to February 15.All these data are reported by 32 provincial Health Commissions in China 8 .', 'Figure 1 shows the time patterns of daily confirmed new cases in Wuhan, in Hubei province outside Wuhan, and in mainland China but outside Hubei province.For the explanatory variables, we calculate the number of new cases of COVID-19 in the preceding first and second weeks for each city on each day.', "To estimate the impacts of new COVID-19 cases in other cities on a city's own COVID-19 new case, we first calculate the geographic distance between a city and all other cities using the latitudes and longitudes of the centroids of each city, and then calculate the weighted sum of the number of COVID-19 new cases in all other cities using the inverse of log distance between a city and each of the other cities as the weight.7 Flu viruses are easier to survive in cold weather.", 'Figure 1: Number of Daily New Confirmed Cases of COVID-19 in Mainland China\n\nSince the COVID-19 outbreak starts from Wuhan, we also calculate the weighted number of COVID-19 new cases in Wuhan using the inverse of log distance as the weight.', 'To merge the meteorological variables with the number of new cases of COVID-19, we first calculate daily weather variables for each city on each day from 2019 December to 2020 February from station-level weather records following the inverse-distance weighting method.', 'Second, we match the daily weather variables to the number of new cases of COVID-19 based on city name and date.', 'Selection of Instrumental Variables\n\nThe transmission rate of COVID-19 may be affected by many environmental factors.', 'Humanto-human transmission of COVID-19 is mostly through droplets and contacts (National Health Commission of the PRC, 2020).', 'Current new cases arise from contracting the virus in the past, and for the case of COVID-19, typically within two weeks.', 'There are four variables selected, including average maximum wind speed and average precipitation during the past third and fourth weeks.We also include average temperature during the past third and fourth weeks because temperature is known to affect the transmissions of flu virus and is conjectured to affect COVID-19 as well .', 'Table 2 shows that F-tests on the coefficients of the three and four week lags of the instrumental variables all strongly reject joint insignificance, which confirms that the selected instrumental variables are not weak.The coefficients of the first stage regressions are reported in Table B .1 in the appendix.10 The 100km circle is consistent with the existing literature.', 'Within City Transmission\n\nOur sample starts from January 19, when the first COVID-19 case was reported outside Wuhan.The sample spans four weeks in total and ends on February 15.', 'On January 20, COVID-19 was classified as a Class B statutory infectious disease and treated as a Class .', 'Comparing Table 4 with Table 3 , we observe that the results are not sensitive to the inclusion of terms on between-city transmissions.As a robustness test, Table 5 reports the estimation results if the analysis sample does not include cities in Hubei province.', 'However, until clearer mechanisms are identified and tested, this should be interpreted with caution.15 From mid February, individual specific health codes such as Alipay Health Code and WeChat Health Code are being used in many cities to aid quarantine efforts.', '1101 /2020 At the time of writing, COVID-19 represents a very high risk at the global level, according to the WHO risk assessment (World Health Organization, 2020a) .', 'Key knowledge gaps remain in the understanding of the epidemiological characteristics of COVID-19, such as individual risk factors for contracting the virus and infections from asymptotic cases.', 'https://doi.org/10.1101/2020.03.13.20035238 doi: medRxiv preprint A Data Figure A .1 illustrates the dependent variable, the instrumental variables, and the exclusion restriction that weather conditions earlier than two weeks from date t affect the number of people who are infectious within past two weeks, but do not directly affect the number of confirmed new cases at date t. (1) and (2), the dependent variables are the numbers of newly confirmed COVID-19 cases in the own city in the preceding first and second weeks, respectively.']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'medication', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'test', 'covid', 'test', 'covid', 'test', 'test', 'covid', 'test', 'covid', 'test', 'covid', 'test', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'test', 'covid', 'test', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'test', 'test', 'test', 'test', 'covid', 'test', 'covid', 'covid', 'test', 'covid', 'test', 'test', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'test']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'test', 'test', 'test']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'test', 'test', 'test', 'test', 'test', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccination', 'test', 'covid', 'covid', 'vaccination', 'covid', 'vaccination', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'test']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'test', 'covid', 'test', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid']</t>
-  </si>
-  <si>
-    <t>['covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'covid', 'covid', 'covid', 'vaccination', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'development', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'covid', 'test', 'covid', 'covid', 'test', 'test', 'covid', 'covid', 'covid']</t>
+    <t>Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza</t>
+  </si>
+  <si>
+    <t>05d47dd5b46f86428de058db4ecc8bca76a9ad16</t>
+  </si>
+  <si>
+    <t>Timothy R Abbott, Girija Dhamdhere, Yanxia Liu, Xueqiu Lin, Laine Goudy, Leiping Zeng, Augustine Chemparathy, Stephen Chmura, Nicholas S Heaton, Robert Debs, Tara Pande, Drew Endy, Marie La Russa, † , David B Lewis, Lei S Qi</t>
+  </si>
+  <si>
+    <t>['INTRODUCTION\n\nThe world is currently faced with a pandemic of novel coronavirus disease 2019 (COVID- 19) , which is caused by Severe Acute Respiratory Syndrome coronavirus 2 (SARS-CoV-2) and has no vaccine or cure.', 'It is predicted the development of a safe and effective vaccine to prevent COVID-19 will take one year to 18 months, by which time it is likely that several hundreds of thousands to millions of people may have been infected.', 'Since coronaviruses causing COVID-19, Severe Acute Respiratory Syndrome (SARS), and Middle East Respiratory Syndrome (MERS) are able to suddenly transfer to humans from diverse animal hosts that act as viral reservoirs, there is a pressing need to develop methods to combat other potential coronaviruses that may emerge in the future [1] [2] [3] .', 'A recent report further showed two strains (L and S) of SARS-CoV-2 with different genome sequences are circulating and likely evolving, further highlighting the need for a pan-coronavirus vaccination strategy 4 .The novel coronavirus causing COVID-19 belongs to a family of positive-sense RNA viruses, which typically infect the upper and lower respiratory tracks and cause disease by direct cytotoxic effects and the induction of host cytokines disease 5 .', 'Therefore, we tested our approach using synthesized fragments of SARS-CoV-2, as well as with live H1N1 IAV.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'Through the use of crRNA pools targeting different regions of the same virus or different strains of coronavirus, this system could possibly buffer against viral evolution and escape, as well as enable rapid development and deployment against emerging viruses.', 'When combined with an effective delivery platform, PAC-MAN is a promising strategy to combat not only coronaviruses including that causing COVID-19, but also a broad range of other genera of viruses.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'A total of ten groups (G1-G10) were tested for all 40 crRNAs (Supplemental Table 2 ).', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'We argue that this approach, in which the lentivirus-derived RNA serves as a PAC-MAN target prior to lentivirus integration into DNA, mimics the crRNA targeting conditions that would apply for natural COVID-19 infection.', 'We tested on a few selected crRNA pools, including the 3 best groups G4, G5, and G8 and one less efficient group G1, with a lentiviral multiplicity of infection (MOI) of 0.5.', 'CRISPR PAC-MAN is able to inhibit IAV infection in human lung epithelial cells\n\nSince we do not yet have access to live SARS-CoV-2 virus, as a proof-of-concept we elected to test the CRISPR-Cas13d strategy on inhibiting H1N1 IAV, a RNA virus with a similar tropism as SARS-CoV-2 for respiratory tract epithelial cells.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'Manuscript\n\n9\n\nTo test the efficiency of IAV-targeting crRNAs, we performed a screen of our crRNA pools in the stable Cas13d A549 cell line to determine which were most effective at inhibiting IAV infection (Fig.', 'To verify Cas13d-mediated inhibitory effects on S4 and S6, we further tested at a lower MOI of 0.5, which showed better inhibition of IAV across samples (e.g., 79% reduction using crRNAs targeting S6; Fig.', 'Cas13d PAC-MAN as a potential pan-coronavirus inhibition strategy\n\nIn the past two decades, multiple variants of coronavirus, including those causing COVID-19, SARS and MERS, emerged from animal reservoirs and infected humans, each time causing significant disease and fatalities 1-3 .', 'We found that just two crRNAs could target ~50% of coronavirus genomes, including those causing COVID-19, SARS, and MERS; 6 crRNAs were able to target ~91% of coronavirus genomes; and 22 crRNAs covered all sequenced coronaviruses with no mismatches (Fig.', 'The ability to use a relatively small number of crRNAs to broadly target most or all coronavirus strains further highlights the uniqueness of our approach in contrast to traditional pharmaceutical or vaccination approaches.As a resource, we provide a map to show how our top 6 crRNAs (PAC-MAN-T6) targeted the coronavirus phylogenetic tree (Fig.', 'Beta coronaviruses, the genus of viruses causing COVID-19, SARS, and MERS, were mostly covered by 3 crRNAs (crRNA 1-3) , while the other genera were covered by these three plus the remaining 3 crRNAs.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'While this strategy is a proof-of-concept and will require further testing using replication-competent SARS-CoV-2 viruses and validation in animal models before clinical tests in humans, it represents a unique approach to implement a rapid and broad antiviral defense in humans against emerging pathogens for which there are no effective vaccines.For both SARS-CoV-2 and IAV, we found highly conserved regions of the viral genomes to target with Cas13d.', 'Remdesivir, created by Gilead Sciences (development code GS-5734), is an RdRP inhibitor that was developed to treat Ebola and Marburg virus infections and has been reported to have antiviral activity against MERS and SARS 36-38 .', 'Remdesivir is already administered for COVID-19 through compassionate use requests, and clinical trials for its use against COVID-19 have already started in the U.S.(clinical trial ID NCT04280705) and China.', 'Oseltamivir (also known as Tamiflu), is an antiviral medication for treating and preventing IAV that acts as an inhibitor of NA, thereby preventing the egress of new viral particles 39 .', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'If the crRNAs targeting these viruses can be tested and validated before they ever infect humans, we can greatly accelerate the development of countermeasures for future emergent threats.In summary, our PAC-MAN strategy represents a potentially powerful new approach for inhibiting viral function and replication, and we envision it could be useful for a diverse array of circulating and emergent viral threats.', 'the one with the fewest, shortest stretches of repeated nucleotides) was added to the set of minimal crRNAs.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.', 'Twenty-four hours after transfection or 48 hours after transduction, cells were tested using flow cytometry on a Beckman-Coulter CytoFLEX S and qRT-PCR on a Biorad author/funder.', 'An independent two-tailed T test was used to calculate the p values and statistics in Fig.', 'https://doi.org/10.1101/2020.03.13.991307 doi: bioRxiv preprint Development of CRISPR as a prophylactic strategy to combat novel coronavirus and influenza Abbott et al.']</t>
+  </si>
+  <si>
+    <t>['covid', 'development', 'covid', 'covid', 'covid', 'vaccination', 'test', 'development', 'development', 'covid', 'development', 'development', 'test', 'development', 'development', 'covid', 'test', 'test', 'development', 'test', 'test', 'covid', 'covid', 'vaccination', 'covid', 'development', 'development', 'test', 'development', 'covid', 'medication', 'development', 'development', 'test', 'test', 'development', 'test', 'test', 'development']</t>
   </si>
 </sst>
 </file>
@@ -555,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,233 +440,23 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>23775</v>
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>18427</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>691</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>28792</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>16532</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>11860</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>22433</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>334</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>882</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
